--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/156a5e04750dab24/桌面/TSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tastror\OneDrive\桌面\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{DA092F67-EC6C-49EF-AD43-765D96839EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96887F3C-F7E1-4042-B1C2-55908C6F9B91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BF5F32-8555-4D5E-B36F-8A3596E7F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$Z$42</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="146">
   <si>
     <t>韵母</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,10 +265,6 @@
   </si>
   <si>
     <t>uen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o, uo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,72 +441,6 @@
   </si>
   <si>
     <t>零声母类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、齐撮</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、合</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>W</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1218,10 +1151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e, ê</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iên</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1602,44 +1531,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">i, </t>
-    </r>
-    <r>
-      <rPr>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ɿ</t>
-    </r>
-    <r>
-      <rPr>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
+      </rPr>
+      <t>、齐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ʅ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an, ên</t>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、撮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o, io, uo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng, ueng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合口零声母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐撮零声母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开口零声母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含开口韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含合口韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含齐撮韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i, ɿ, ʅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoeêɿʅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iü</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1833,11 +1864,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2223,7 +2255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2400,6 +2432,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2694,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O12"/>
+  <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2710,16 +2748,16 @@
         <v>36</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>50</v>
@@ -2728,16 +2766,16 @@
         <v>21</v>
       </c>
       <c r="J2" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="32" t="s">
-        <v>59</v>
-      </c>
       <c r="L2" s="33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O2" s="41"/>
     </row>
@@ -2752,10 +2790,10 @@
         <v>38</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>56</v>
@@ -2764,14 +2802,14 @@
         <v>42</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>55</v>
       </c>
       <c r="L3" s="9"/>
       <c r="N3" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O3" s="41"/>
     </row>
@@ -2780,19 +2818,19 @@
         <v>53</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>57</v>
@@ -2801,7 +2839,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="N4" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O4" s="41"/>
     </row>
@@ -2906,7 +2944,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>31</v>
@@ -2918,16 +2956,16 @@
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>2</v>
@@ -2988,6 +3026,299 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
+    </row>
+    <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="22" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3014,10 +3345,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>12</v>
@@ -3029,7 +3360,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3037,19 +3368,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3057,15 +3388,15 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3078,37 +3409,37 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F6" s="25"/>
     </row>
@@ -3122,7 +3453,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>43</v>
@@ -3130,13 +3461,13 @@
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -3144,13 +3475,13 @@
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
@@ -3164,7 +3495,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
@@ -3172,13 +3503,13 @@
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
@@ -3186,13 +3517,13 @@
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
@@ -3216,14 +3547,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F914A85F-D6ED-45CC-9F6C-6023A3372693}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="M13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="16.77734375" style="1"/>
+    <col min="2" max="25" width="16.77734375" style="1"/>
+    <col min="26" max="26" width="25.5546875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="16.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3253,9 +3586,11 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="Y1" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="Z1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3264,7 +3599,7 @@
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -3329,14 +3664,16 @@
       <c r="X2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
-        <v>91</v>
+      <c r="Y2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z2" s="60" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -3430,10 +3767,10 @@
       </c>
       <c r="Y3" s="1" t="str">
         <f t="shared" ref="Y3:Y19" si="1">_xlfn.CONCAT(Y$2,$B3)</f>
-        <v>a</v>
+        <v>^a</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3530,19 +3867,19 @@
       </c>
       <c r="Y4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ia</v>
+        <v>^ia</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ref="D5:S33" si="2">_xlfn.CONCAT(D$2,$B5)</f>
@@ -3630,10 +3967,10 @@
       </c>
       <c r="Y5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ua</v>
+        <v>^ua</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3730,19 +4067,19 @@
       </c>
       <c r="Y6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>o</v>
+        <v>^o</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ref="D7:V7" si="4">_xlfn.CONCAT(D$2,$B7)</f>
@@ -3830,19 +4167,19 @@
       </c>
       <c r="Y7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>io</v>
+        <v>^io</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3930,10 +4267,10 @@
       </c>
       <c r="Y8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>uo</v>
+        <v>^uo</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4030,19 +4367,19 @@
       </c>
       <c r="Y9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>e</v>
+        <v>^e</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57"/>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4130,10 +4467,10 @@
       </c>
       <c r="Y10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ê</v>
+        <v>^ê</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4230,19 +4567,19 @@
       </c>
       <c r="Y11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>iê</v>
+        <v>^iê</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4330,10 +4667,10 @@
       </c>
       <c r="Y12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>üê</v>
+        <v>^üê</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4430,16 +4767,16 @@
       </c>
       <c r="Y13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>i</v>
+        <v>^i</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -4530,16 +4867,13 @@
       </c>
       <c r="Y14" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>ɿ</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>87</v>
+        <v>^ɿ</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -4630,10 +4964,7 @@
       </c>
       <c r="Y15" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>ʅ</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>87</v>
+        <v>^ʅ</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4730,19 +5061,19 @@
       </c>
       <c r="Y16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>u</v>
+        <v>^u</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4830,19 +5161,19 @@
       </c>
       <c r="Y17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ü</v>
+        <v>^ü</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4930,15 +5261,15 @@
       </c>
       <c r="Y18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>er</v>
+        <v>^er</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>53</v>
@@ -5032,19 +5363,19 @@
       </c>
       <c r="Y19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ai</v>
+        <v>^ai</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5132,10 +5463,10 @@
       </c>
       <c r="Y20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>uai</v>
+        <v>^uai</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,19 +5563,19 @@
       </c>
       <c r="Y21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>êi</v>
+        <v>^êi</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5332,18 +5663,18 @@
       </c>
       <c r="Y22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>uêi</v>
+        <v>^uêi</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>54</v>
@@ -5434,16 +5765,16 @@
       </c>
       <c r="Y23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>au</v>
+        <v>^au</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>44</v>
@@ -5534,10 +5865,10 @@
       </c>
       <c r="Y24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>iau</v>
+        <v>^iau</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5634,10 +5965,10 @@
       </c>
       <c r="Y25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ou</v>
+        <v>^ou</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5734,15 +6065,15 @@
       </c>
       <c r="Y26" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>iou</v>
+        <v>^iou</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>37</v>
@@ -5836,16 +6167,16 @@
       </c>
       <c r="Y27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>an</v>
+        <v>^an</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>39</v>
@@ -5936,10 +6267,10 @@
       </c>
       <c r="Y28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>iên</v>
+        <v>^iên</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6036,19 +6367,19 @@
       </c>
       <c r="Y29" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>uan</v>
+        <v>^uan</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6136,10 +6467,10 @@
       </c>
       <c r="Y30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>üaên</v>
+        <v>^üaên</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6236,10 +6567,10 @@
       </c>
       <c r="Y31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>en</v>
+        <v>^en</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6248,7 +6579,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6336,10 +6667,10 @@
       </c>
       <c r="Y32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>uen</v>
+        <v>^uen</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6436,19 +6767,19 @@
       </c>
       <c r="Y33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>in</v>
+        <v>^in</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="7" t="str">
         <f t="shared" ref="D34:S42" si="7">_xlfn.CONCAT(D$2,$B34)</f>
@@ -6536,15 +6867,15 @@
       </c>
       <c r="Y34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>üin</v>
+        <v>^üin</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>38</v>
@@ -6638,19 +6969,19 @@
       </c>
       <c r="Y35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ang</v>
+        <v>^ang</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="7" t="str">
         <f t="shared" si="7"/>
@@ -6738,19 +7069,19 @@
       </c>
       <c r="Y36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>iang</v>
+        <v>^iang</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="7" t="str">
         <f t="shared" si="7"/>
@@ -6838,19 +7169,19 @@
       </c>
       <c r="Y37" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>uang</v>
+        <v>^uang</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="7" t="str">
         <f t="shared" si="7"/>
@@ -6938,19 +7269,19 @@
       </c>
       <c r="Y38" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ong</v>
+        <v>^ong</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="57"/>
       <c r="B39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="7" t="str">
         <f t="shared" si="7"/>
@@ -7038,10 +7369,10 @@
       </c>
       <c r="Y39" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>iong</v>
+        <v>^iong</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7138,10 +7469,10 @@
       </c>
       <c r="Y40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>eng</v>
+        <v>^eng</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7238,10 +7569,10 @@
       </c>
       <c r="Y41" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ueng</v>
+        <v>^ueng</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7338,13 +7669,17 @@
       </c>
       <c r="Y42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ing</v>
+        <v>^ing</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z42" xr:uid="{F914A85F-D6ED-45CC-9F6C-6023A3372693}">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A27:A34"/>

--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tastror\OneDrive\桌面\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BF5F32-8555-4D5E-B36F-8A3596E7F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA79355-9769-4D67-82AF-9AADBE96E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能1 合并字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能2 待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1673,12 +1669,16 @@
     <t>iü</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>功能1 笔画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1854,14 +1854,6 @@
       <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2255,7 +2247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2368,13 +2360,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2432,12 +2424,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2734,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2754,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>59</v>
@@ -2766,13 +2752,13 @@
         <v>21</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>61</v>
@@ -2793,7 +2779,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>56</v>
@@ -2802,7 +2788,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>55</v>
@@ -2818,19 +2804,19 @@
         <v>53</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>57</v>
@@ -2944,7 +2930,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>31</v>
@@ -2956,23 +2942,23 @@
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="37" t="s">
@@ -3002,16 +2988,16 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -3029,19 +3015,19 @@
     </row>
     <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -3050,8 +3036,8 @@
       <c r="D18" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="61" t="s">
-        <v>121</v>
+      <c r="E18" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>59</v>
@@ -3059,24 +3045,24 @@
       <c r="H18" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="I18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18" s="61" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="34" t="s">
@@ -3085,19 +3071,19 @@
       <c r="E19" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="61" t="s">
+      <c r="F19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>56</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="K19" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="9"/>
@@ -3106,20 +3092,20 @@
       <c r="B20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="61" t="s">
+      <c r="C20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="61" t="s">
+      <c r="E20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>57</v>
@@ -3130,68 +3116,68 @@
     </row>
     <row r="22" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="I23" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="61" t="s">
-        <v>135</v>
+      <c r="J24" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="K24" s="36" t="s">
         <v>55</v>
@@ -3199,25 +3185,25 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>73</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J25" s="9"/>
@@ -3226,7 +3212,7 @@
     </row>
     <row r="27" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>21</v>
@@ -3236,58 +3222,58 @@
       <c r="B28" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="61" t="s">
+      <c r="E28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I28" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="61" t="s">
-        <v>143</v>
+      <c r="J28" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="61" t="s">
+      <c r="I29" s="9" t="s">
         <v>42</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K29" s="36" t="s">
         <v>55</v>
@@ -3295,25 +3281,25 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="61" t="s">
+      <c r="C30" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="61" t="s">
+      <c r="H30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J30" s="9"/>
@@ -3345,7 +3331,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>74</v>
@@ -3360,7 +3346,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3368,19 +3354,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3388,15 +3374,15 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3409,37 +3395,37 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="25"/>
     </row>
@@ -3453,7 +3439,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>43</v>
@@ -3461,13 +3447,13 @@
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -3475,13 +3461,13 @@
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
@@ -3495,7 +3481,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
@@ -3503,13 +3489,13 @@
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
@@ -3523,7 +3509,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
@@ -3665,10 +3651,10 @@
         <v>19</v>
       </c>
       <c r="Y2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z2" s="40" t="s">
         <v>131</v>
-      </c>
-      <c r="Z2" s="60" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3870,7 +3856,7 @@
         <v>^ia</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4170,7 +4156,7 @@
         <v>^io</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4570,13 +4556,13 @@
         <v>^iê</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>92</v>
@@ -4770,7 +4756,7 @@
         <v>^i</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5070,7 +5056,7 @@
     <row r="17" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>90</v>
@@ -5868,7 +5854,7 @@
         <v>^iau</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6068,7 +6054,7 @@
         <v>^iou</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6176,7 +6162,7 @@
     <row r="28" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>39</v>
@@ -6270,7 +6256,7 @@
         <v>^iên</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6376,7 +6362,7 @@
     <row r="30" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>60</v>
@@ -6770,13 +6756,13 @@
         <v>^in</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>91</v>
@@ -7072,7 +7058,7 @@
         <v>^iang</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7372,7 +7358,7 @@
         <v>^iong</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7672,7 +7658,7 @@
         <v>^ing</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tastror\OneDrive\桌面\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA79355-9769-4D67-82AF-9AADBE96E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA9832-0D99-4EAC-A79A-51E15D0E3891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ing, uai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>in</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1671,6 +1667,10 @@
   </si>
   <si>
     <t>功能1 笔画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>üê, uai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1939,7 +1939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2354,9 +2354,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2424,6 +2421,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2734,16 +2734,16 @@
         <v>36</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>50</v>
@@ -2752,18 +2752,18 @@
         <v>21</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="41"/>
+        <v>128</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
@@ -2779,55 +2779,55 @@
         <v>37</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>55</v>
+        <v>133</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="L3" s="9"/>
-      <c r="N3" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" s="41"/>
+      <c r="N3" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>95</v>
+      <c r="C4" s="59" t="s">
+        <v>145</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="N4" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="41"/>
+      <c r="N4" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="40"/>
     </row>
     <row r="6" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -2930,9 +2930,9 @@
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -2942,26 +2942,26 @@
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -2988,16 +2988,16 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -3015,15 +3015,15 @@
     </row>
     <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,16 +3031,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="28" t="s">
         <v>50</v>
@@ -3049,13 +3049,13 @@
         <v>21</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,19 +3072,19 @@
         <v>37</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L19" s="9"/>
     </row>
@@ -3093,22 +3093,22 @@
         <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="22" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,16 +3127,16 @@
         <v>36</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>50</v>
@@ -3145,13 +3145,13 @@
         <v>21</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,19 +3168,19 @@
         <v>37</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>42</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>55</v>
+        <v>133</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="L24" s="9"/>
     </row>
@@ -3188,23 +3188,23 @@
       <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>95</v>
+      <c r="C25" s="59" t="s">
+        <v>145</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="27" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>21</v>
@@ -3223,16 +3223,16 @@
         <v>36</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>50</v>
@@ -3241,13 +3241,13 @@
         <v>21</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3264,19 +3264,19 @@
         <v>37</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>42</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>55</v>
+        <v>133</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="L29" s="9"/>
     </row>
@@ -3284,23 +3284,23 @@
       <c r="B30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>95</v>
+      <c r="C30" s="59" t="s">
+        <v>145</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -3331,10 +3331,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>12</v>
@@ -3346,7 +3346,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3354,19 +3354,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,15 +3374,15 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3395,37 +3395,37 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6" s="25"/>
     </row>
@@ -3439,7 +3439,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>43</v>
@@ -3447,31 +3447,31 @@
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -3480,40 +3480,40 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
+      <c r="C10" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
+        <v>69</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3533,7 +3533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F914A85F-D6ED-45CC-9F6C-6023A3372693}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView topLeftCell="M13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
@@ -3546,11 +3546,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3576,16 +3576,16 @@
         <v>28</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -3651,15 +3651,15 @@
         <v>19</v>
       </c>
       <c r="Y2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="39" t="s">
         <v>130</v>
-      </c>
-      <c r="Z2" s="40" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>74</v>
+      <c r="A3" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -3756,11 +3756,11 @@
         <v>^a</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
@@ -3856,16 +3856,16 @@
         <v>^ia</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ref="D5:S33" si="2">_xlfn.CONCAT(D$2,$B5)</f>
@@ -3956,11 +3956,11 @@
         <v>^ua</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -4056,16 +4056,16 @@
         <v>^o</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ref="D7:V7" si="4">_xlfn.CONCAT(D$2,$B7)</f>
@@ -4156,16 +4156,16 @@
         <v>^io</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4256,11 +4256,11 @@
         <v>^uo</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -4356,16 +4356,16 @@
         <v>^e</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4456,11 +4456,11 @@
         <v>^ê</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
@@ -4556,16 +4556,16 @@
         <v>^iê</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4656,11 +4656,11 @@
         <v>^üê</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -4756,13 +4756,13 @@
         <v>^i</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -4857,9 +4857,9 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -4954,7 +4954,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -5050,16 +5050,16 @@
         <v>^u</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5150,16 +5150,16 @@
         <v>^ü</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5250,12 +5250,12 @@
         <v>^er</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>82</v>
+      <c r="A19" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>53</v>
@@ -5352,16 +5352,16 @@
         <v>^ai</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5452,11 +5452,11 @@
         <v>^uai</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -5552,16 +5552,16 @@
         <v>^êi</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5652,15 +5652,15 @@
         <v>^uêi</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
-        <v>83</v>
+      <c r="A23" s="56" t="s">
+        <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>54</v>
@@ -5754,13 +5754,13 @@
         <v>^au</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>44</v>
@@ -5854,16 +5854,16 @@
         <v>^iau</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5954,11 +5954,11 @@
         <v>^ou</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="3" t="s">
         <v>46</v>
       </c>
@@ -6054,12 +6054,12 @@
         <v>^iou</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>84</v>
+      <c r="A27" s="56" t="s">
+        <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>37</v>
@@ -6156,13 +6156,13 @@
         <v>^an</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>39</v>
@@ -6256,11 +6256,11 @@
         <v>^iên</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
@@ -6356,16 +6356,16 @@
         <v>^uan</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6456,11 +6456,11 @@
         <v>^üaên</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
@@ -6556,16 +6556,16 @@
         <v>^en</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6656,16 +6656,16 @@
         <v>^uen</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6756,16 +6756,16 @@
         <v>^in</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="7" t="str">
         <f t="shared" ref="D34:S42" si="7">_xlfn.CONCAT(D$2,$B34)</f>
@@ -6856,12 +6856,12 @@
         <v>^üin</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
-        <v>85</v>
+      <c r="A35" s="56" t="s">
+        <v>84</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>38</v>
@@ -6958,16 +6958,16 @@
         <v>^ang</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="7" t="str">
         <f t="shared" si="7"/>
@@ -7058,16 +7058,16 @@
         <v>^iang</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="7" t="str">
         <f t="shared" si="7"/>
@@ -7158,16 +7158,16 @@
         <v>^uang</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="7" t="str">
         <f t="shared" si="7"/>
@@ -7258,16 +7258,16 @@
         <v>^ong</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="7" t="str">
         <f t="shared" si="7"/>
@@ -7358,11 +7358,11 @@
         <v>^iong</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
@@ -7458,11 +7458,11 @@
         <v>^eng</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="3" t="s">
         <v>52</v>
       </c>
@@ -7558,11 +7558,11 @@
         <v>^ueng</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>^ing</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tastror\OneDrive\桌面\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA9832-0D99-4EAC-A79A-51E15D0E3891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A7A8E-8A44-4917-8B81-9C655A9FB98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2366,6 +2366,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2421,9 +2424,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2760,10 +2760,10 @@
       <c r="L2" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
@@ -2794,16 +2794,16 @@
         <v>43</v>
       </c>
       <c r="L3" s="9"/>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="40"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="40" t="s">
         <v>145</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -2824,10 +2824,10 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="40"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="6" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -3188,7 +3188,7 @@
       <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="40" t="s">
         <v>145</v>
       </c>
       <c r="D25" s="28" t="s">
@@ -3284,7 +3284,7 @@
       <c r="B30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="40" t="s">
         <v>145</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -3452,12 +3452,12 @@
       <c r="B8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -3466,12 +3466,12 @@
       <c r="B9" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -3480,12 +3480,12 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -3494,12 +3494,12 @@
       <c r="B11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -3508,12 +3508,12 @@
       <c r="B12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3533,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F914A85F-D6ED-45CC-9F6C-6023A3372693}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3546,11 +3546,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3580,10 +3580,10 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
@@ -3658,7 +3658,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3760,7 +3760,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
@@ -3860,7 +3860,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="3" t="s">
         <v>62</v>
       </c>
@@ -3960,7 +3960,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -4060,7 +4060,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
@@ -4160,7 +4160,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
@@ -4260,7 +4260,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -4360,7 +4360,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
@@ -4460,7 +4460,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
@@ -4560,7 +4560,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="3" t="s">
         <v>94</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -4760,7 +4760,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
@@ -4857,7 +4857,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="3" t="s">
         <v>68</v>
       </c>
@@ -4954,7 +4954,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -5054,7 +5054,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="3" t="s">
         <v>96</v>
       </c>
@@ -5154,7 +5154,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -5356,7 +5356,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
@@ -5456,7 +5456,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -5556,7 +5556,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="3" t="s">
         <v>70</v>
       </c>
@@ -5656,7 +5656,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="57" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -5758,7 +5758,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="3" t="s">
         <v>72</v>
       </c>
@@ -5858,7 +5858,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
@@ -5958,7 +5958,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="3" t="s">
         <v>46</v>
       </c>
@@ -6058,7 +6058,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -6160,7 +6160,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="3" t="s">
         <v>119</v>
       </c>
@@ -6260,7 +6260,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
@@ -6360,7 +6360,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="3" t="s">
         <v>125</v>
       </c>
@@ -6447,7 +6447,7 @@
         <f t="shared" si="3"/>
         <v>cüaên</v>
       </c>
-      <c r="X30" s="1" t="str">
+      <c r="X30" s="7" t="str">
         <f t="shared" si="3"/>
         <v>süaên</v>
       </c>
@@ -6460,7 +6460,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
@@ -6560,7 +6560,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
@@ -6660,7 +6660,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
@@ -6760,7 +6760,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="3" t="s">
         <v>95</v>
       </c>
@@ -6860,7 +6860,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="57" t="s">
         <v>84</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -6962,7 +6962,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="3" t="s">
         <v>76</v>
       </c>
@@ -7062,7 +7062,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="3" t="s">
         <v>77</v>
       </c>
@@ -7162,7 +7162,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
@@ -7262,7 +7262,7 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
@@ -7362,7 +7362,7 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
@@ -7462,7 +7462,7 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="3" t="s">
         <v>52</v>
       </c>
@@ -7562,7 +7562,7 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="3" t="s">
         <v>43</v>
       </c>

--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tastror\OneDrive\桌面\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A7A8E-8A44-4917-8B81-9C655A9FB98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF079D-C59C-4818-B5BE-42665AE2A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iou, er</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>韵腹\韵尾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1673,12 +1669,60 @@
     <t>üê, uai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɿ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʅ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, er</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1862,6 +1906,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2720,9 +2771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2740,7 +2789,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>58</v>
@@ -2752,13 +2801,13 @@
         <v>21</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>60</v>
@@ -2779,7 +2828,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>55</v>
@@ -2788,7 +2837,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>43</v>
@@ -2804,19 +2853,19 @@
         <v>53</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>56</v>
@@ -2930,7 +2979,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>31</v>
@@ -2942,16 +2991,16 @@
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>93</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>2</v>
@@ -3015,15 +3064,15 @@
     </row>
     <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3037,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>58</v>
@@ -3049,13 +3098,13 @@
         <v>21</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,7 +3121,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>55</v>
@@ -3081,7 +3130,7 @@
         <v>42</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>43</v>
@@ -3093,19 +3142,19 @@
         <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="32" t="s">
-        <v>97</v>
+      <c r="H20" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>56</v>
@@ -3116,10 +3165,10 @@
     </row>
     <row r="22" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>58</v>
@@ -3145,13 +3194,13 @@
         <v>21</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,7 +3217,7 @@
         <v>37</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>55</v>
@@ -3177,7 +3226,7 @@
         <v>42</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K24" s="35" t="s">
         <v>43</v>
@@ -3189,19 +3238,19 @@
         <v>53</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>56</v>
@@ -3212,7 +3261,7 @@
     </row>
     <row r="27" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>21</v>
@@ -3229,7 +3278,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>58</v>
@@ -3241,13 +3290,13 @@
         <v>21</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3264,7 +3313,7 @@
         <v>37</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>55</v>
@@ -3273,7 +3322,7 @@
         <v>42</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>43</v>
@@ -3285,19 +3334,19 @@
         <v>53</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>56</v>
@@ -3331,7 +3380,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>73</v>
@@ -3346,7 +3395,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3354,19 +3403,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,15 +3423,15 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3395,37 +3444,37 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="25"/>
     </row>
@@ -3439,7 +3488,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>43</v>
@@ -3447,13 +3496,13 @@
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -3461,13 +3510,13 @@
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
@@ -3481,7 +3530,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
@@ -3495,7 +3544,7 @@
         <v>96</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
@@ -3509,7 +3558,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
@@ -3651,10 +3700,10 @@
         <v>19</v>
       </c>
       <c r="Y2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" s="39" t="s">
         <v>129</v>
-      </c>
-      <c r="Z2" s="39" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3856,7 +3905,7 @@
         <v>^ia</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4156,7 +4205,7 @@
         <v>^io</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4556,7 +4605,7 @@
         <v>^iê</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4756,7 +4805,7 @@
         <v>^i</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5854,7 +5903,7 @@
         <v>^iau</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6054,7 +6103,7 @@
         <v>^iou</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6162,7 +6211,7 @@
     <row r="28" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57"/>
       <c r="B28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>39</v>
@@ -6256,7 +6305,7 @@
         <v>^iên</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6362,7 +6411,7 @@
     <row r="30" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>59</v>
@@ -6756,7 +6805,7 @@
         <v>^in</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7058,7 +7107,7 @@
         <v>^iang</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7358,7 +7407,7 @@
         <v>^iong</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7658,7 +7707,7 @@
         <v>^ing</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tastror\OneDrive\桌面\TSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/156a5e04750dab24/桌面/TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF079D-C59C-4818-B5BE-42665AE2A26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{84FDFF2F-C4A7-4E60-B612-76B73EDBDAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427E4BFE-2EAF-4964-8938-08E6ECACBF23}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="149">
   <si>
     <t>韵母</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1654,10 +1654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aoeêɿʅ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iü</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1670,8 +1666,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">i, </t>
+    <t>iau, ng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iou, n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in, m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i, ɿ, ʅ, er</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aoeê</t>
     </r>
     <r>
       <rPr>
@@ -1681,7 +1693,17 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>ɿ</t>
+      <t>ɿʅ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -1692,28 +1714,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ʅ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, er</t>
+      <t>nng</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1722,7 +1723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1906,6 +1907,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2506,6 +2514,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2771,7 +2783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2801,7 +2815,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>131</v>
@@ -2831,7 +2845,7 @@
         <v>126</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>42</v>
@@ -2853,7 +2867,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>48</v>
@@ -2862,10 +2876,10 @@
         <v>125</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>56</v>
@@ -2994,7 +3008,7 @@
         <v>134</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>93</v>
@@ -3072,7 +3086,7 @@
         <v>137</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3098,7 +3112,7 @@
         <v>21</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K18" s="32" t="s">
         <v>131</v>
@@ -3123,8 +3137,8 @@
       <c r="F19" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>55</v>
+      <c r="H19" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>42</v>
@@ -3142,7 +3156,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>48</v>
@@ -3150,11 +3164,11 @@
       <c r="E20" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>46</v>
+      <c r="F20" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>145</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>56</v>
@@ -3168,7 +3182,7 @@
         <v>139</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,7 +3208,7 @@
         <v>21</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K23" s="32" t="s">
         <v>131</v>
@@ -3220,7 +3234,7 @@
         <v>126</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>42</v>
@@ -3238,7 +3252,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>48</v>
@@ -3247,10 +3261,10 @@
         <v>125</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>56</v>
@@ -3316,7 +3330,7 @@
         <v>126</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>42</v>
@@ -3334,7 +3348,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>48</v>
@@ -3343,10 +3357,10 @@
         <v>125</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>56</v>

--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/156a5e04750dab24/桌面/TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{84FDFF2F-C4A7-4E60-B612-76B73EDBDAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427E4BFE-2EAF-4964-8938-08E6ECACBF23}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{84FDFF2F-C4A7-4E60-B612-76B73EDBDAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D7927E9-5024-4626-839C-E4BE93248601}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2306,7 +2306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2483,6 +2483,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2783,9 +2786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2844,8 +2845,8 @@
       <c r="F3" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>146</v>
+      <c r="H3" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>42</v>
@@ -2881,8 +2882,8 @@
       <c r="H4" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>56</v>
+      <c r="I4" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -3137,8 +3138,8 @@
       <c r="F19" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="33" t="s">
-        <v>146</v>
+      <c r="H19" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>42</v>
@@ -3170,8 +3171,8 @@
       <c r="H20" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="I20" s="32" t="s">
-        <v>56</v>
+      <c r="I20" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -3233,8 +3234,8 @@
       <c r="F24" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="33" t="s">
-        <v>146</v>
+      <c r="H24" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>42</v>
@@ -3266,8 +3267,8 @@
       <c r="H25" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>56</v>
+      <c r="I25" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -3330,7 +3331,7 @@
         <v>126</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>42</v>
@@ -3362,8 +3363,8 @@
       <c r="H30" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>56</v>
+      <c r="I30" s="60" t="s">
+        <v>146</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>

--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -2306,7 +2306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2485,9 +2485,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2518,6 +2515,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3363,7 +3364,7 @@
       <c r="H30" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="60" t="s">
+      <c r="I30" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J30" s="9"/>
@@ -3386,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCBF856-E901-4FA8-8D9A-D2CBEFF1B64F}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3597,7 +3598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F914A85F-D6ED-45CC-9F6C-6023A3372693}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>

--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/156a5e04750dab24/桌面/TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{84FDFF2F-C4A7-4E60-B612-76B73EDBDAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D7927E9-5024-4626-839C-E4BE93248601}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{84FDFF2F-C4A7-4E60-B612-76B73EDBDAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B304C51-78C6-4B1F-B62E-6F6454DAEC4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="154">
   <si>
     <t>韵母</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1683,7 +1683,7 @@
   </si>
   <si>
     <r>
-      <t>aoeê</t>
+      <t xml:space="preserve">i, </t>
     </r>
     <r>
       <rPr>
@@ -1693,17 +1693,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>ɿʅ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
+      <t>ɿ</t>
     </r>
     <r>
       <rPr>
@@ -1714,8 +1704,72 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nng</t>
-    </r>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʅ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, er</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aoeê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>er,ng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐撮韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开口韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合口韵母</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2306,7 +2360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2485,6 +2539,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2519,6 +2579,10 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2785,7 +2849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O30"/>
+  <dimension ref="B2:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3083,15 +3147,27 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>137</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
@@ -3122,8 +3198,31 @@
       <c r="L18" s="9" t="s">
         <v>127</v>
       </c>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="61"/>
+      <c r="T18" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="W18" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="60"/>
     </row>
-    <row r="19" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
         <v>4</v>
       </c>
@@ -3152,8 +3251,31 @@
         <v>43</v>
       </c>
       <c r="L19" s="9"/>
+      <c r="N19" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="60"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="V19" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
     </row>
-    <row r="20" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
         <v>53</v>
       </c>
@@ -3178,16 +3300,41 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
+      <c r="N20" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" s="61"/>
+      <c r="T20" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="U20" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
     </row>
-    <row r="22" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>139</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>141</v>
       </c>
+      <c r="N22" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="23" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
         <v>36</v>
       </c>
@@ -3210,7 +3357,7 @@
         <v>21</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K23" s="32" t="s">
         <v>131</v>
@@ -3218,8 +3365,31 @@
       <c r="L23" s="33" t="s">
         <v>127</v>
       </c>
+      <c r="N23" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="R23" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="61"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="W23" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="X23" s="60" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="24" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
@@ -3248,8 +3418,25 @@
         <v>43</v>
       </c>
       <c r="L24" s="9"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="S24" s="61"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" s="60"/>
     </row>
-    <row r="25" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
@@ -3274,16 +3461,45 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="S25" s="61"/>
+      <c r="T25" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="U25" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
     </row>
-    <row r="27" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>138</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>21</v>
       </c>
+      <c r="N27" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="28" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
         <v>36</v>
       </c>
@@ -3314,8 +3530,27 @@
       <c r="L28" s="33" t="s">
         <v>127</v>
       </c>
+      <c r="N28" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="X28" s="60" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="29" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>4</v>
       </c>
@@ -3344,8 +3579,25 @@
         <v>43</v>
       </c>
       <c r="L29" s="9"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" s="61"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
     </row>
-    <row r="30" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>53</v>
       </c>
@@ -3370,6 +3622,21 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="R30" s="60"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/156a5e04750dab24/桌面/TSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Devs\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{84FDFF2F-C4A7-4E60-B612-76B73EDBDAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B304C51-78C6-4B1F-B62E-6F6454DAEC4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6AE34-ED8E-4D4D-A636-44E062F4CA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSP" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="183">
   <si>
     <t>韵母</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,19 +120,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,27 +489,6 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> (ia ua)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (iai* uai)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1105,6 +1076,585 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>iên</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ü, uêi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>üin, uen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o, io, uo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng, ueng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含开口韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含合口韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含齐撮韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i, ɿ, ʅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iü</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能1 笔画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>üê, uai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iau, ng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iou, n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in, m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i, ɿ, ʅ, er</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ɿ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʅ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, er</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>aoeê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>er,ng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐撮韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开口韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合口韵母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y, ÿ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ÿ</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ø</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、齐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、撮Ÿ、合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>Ø</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标红：汉语拼音采用真开头模式，与此不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>üan</t>
+  </si>
+  <si>
+    <t>üan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (uan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>üan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：拼音中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符合并，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ɿ,ʅ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符合并，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>替代，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1134,218 +1684,19 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（绿色说明了的不标注了）　*崖曾经的读音，现不用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iên</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>（绿色说明了的不标注了）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ê</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字符合并，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ɿ,ʅ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字符合并，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>iên</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ian</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>替代，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>üaên</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>üan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>替代，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ên</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不使用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ên</t>
+      <t>ai</t>
     </r>
     <r>
       <rPr>
@@ -1354,422 +1705,43 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>iên</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>üaên</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>an</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (uan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>üaên</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>üaên</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（伪）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>aê</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，读</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>a/ê</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>üaên</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ü, uêi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>üaên, uan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>üin, uen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、齐</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、撮</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、合</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o, io, uo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eng, ueng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合口零声母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐撮零声母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开口零声母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含开口韵母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含合口韵母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含齐撮韵母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i, ɿ, ʅ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iü</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能1 笔画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>üê, uai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iau, ng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iou, n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in, m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i, ɿ, ʅ, er</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">i, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ɿ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ʅ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, er</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>aoeê</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>er,ng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐撮韵母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开口韵母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合口韵母</t>
+      <t xml:space="preserve"> (uai)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>üan, uan</t>
+  </si>
+  <si>
+    <t>Ÿ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ø</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持黑色：均没有声母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标蓝：汉语拼音采用伪开头模式，与此相同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1777,7 +1749,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1926,35 +1898,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1976,8 +1919,14 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2056,8 +2005,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2317,50 +2278,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2428,18 +2350,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2476,7 +2386,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2539,10 +2449,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2851,218 +2770,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.77734375" style="31"/>
+    <col min="1" max="16384" width="10.77734375" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="L2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>43</v>
+      <c r="C3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="L3" s="9"/>
-      <c r="N3" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="41"/>
+      <c r="N3" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>146</v>
+      <c r="B4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="N4" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="41"/>
+      <c r="N4" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="37"/>
     </row>
     <row r="6" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>31</v>
+      <c r="C10" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>18</v>
@@ -3070,27 +2991,27 @@
       <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>135</v>
+      <c r="H10" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>165</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -3117,17 +3038,17 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
-        <v>26</v>
+      <c r="B12" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="38" t="s">
-        <v>30</v>
+      <c r="E12" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>1</v>
@@ -3143,500 +3064,491 @@
       <c r="L12" s="9"/>
     </row>
     <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
-        <v>136</v>
+      <c r="B15" s="27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>150</v>
+      <c r="B17" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>50</v>
+        <v>114</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="K18" s="32" t="s">
+      <c r="J18" s="28" t="s">
         <v>131</v>
       </c>
+      <c r="K18" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="L18" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="S18" s="61"/>
-      <c r="T18" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="W18" s="60" t="s">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="W18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="60"/>
+      <c r="X18" s="9"/>
     </row>
     <row r="19" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>132</v>
+        <v>178</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>119</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L19" s="9"/>
-      <c r="N19" s="60" t="s">
+      <c r="N19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="60"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="U19" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="V19" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="9"/>
+      <c r="T19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
     </row>
     <row r="20" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
-        <v>53</v>
+      <c r="B20" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="N20" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="S20" s="61"/>
-      <c r="T20" s="60" t="s">
+      <c r="N20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U20" s="60" t="s">
+      <c r="U20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
     </row>
     <row r="22" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="N22" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="O22" s="31" t="s">
-        <v>141</v>
+      <c r="B22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
-        <v>36</v>
+      <c r="B23" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>58</v>
+      <c r="E23" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="N23" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60" t="s">
+      <c r="J23" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="R23" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="S23" s="61"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60" t="s">
+      <c r="L23" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W23" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="X23" s="60" t="s">
-        <v>95</v>
+      <c r="W23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>51</v>
+      <c r="C24" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>126</v>
+        <v>35</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>43</v>
+        <v>119</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="L24" s="9"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="S24" s="61"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="X24" s="60"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X24" s="9"/>
     </row>
     <row r="25" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>146</v>
+        <v>51</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60" t="s">
+      <c r="N25" s="9"/>
+      <c r="O25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="R25" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="S25" s="61"/>
-      <c r="T25" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="U25" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
+      <c r="R25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
     </row>
     <row r="27" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="O27" s="31" t="s">
+      <c r="N27" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
-        <v>36</v>
+      <c r="B28" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="32" t="s">
+      <c r="L28" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="N28" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="X28" s="60" t="s">
-        <v>57</v>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>51</v>
+      <c r="C29" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="S29" s="61"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
     </row>
     <row r="30" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>143</v>
+        <v>51</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>125</v>
+        <v>46</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="R30" s="60"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3652,7 +3564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCBF856-E901-4FA8-8D9A-D2CBEFF1B64F}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3663,10 +3575,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>12</v>
@@ -3678,7 +3590,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3686,19 +3598,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3706,15 +3618,15 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3727,133 +3639,121 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="25"/>
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>43</v>
-      </c>
+    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
+        <v>94</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
     </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
+    <row r="11" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3863,9 +3763,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F914A85F-D6ED-45CC-9F6C-6023A3372693}">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3877,12 +3777,12 @@
     <col min="27" max="16384" width="16.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3905,93 +3805,93 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z2" s="39" t="s">
-        <v>129</v>
+        <v>161</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>73</v>
+    <row r="3" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -4001,298 +3901,301 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>_xlfn.CONCAT(D$2,$B3)</f>
-        <v>ba</v>
+        <v>Ba</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>_xlfn.CONCAT(E$2,$B3)</f>
-        <v>pa</v>
+        <v>Pa</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:V18" si="0">_xlfn.CONCAT(F$2,$B3)</f>
-        <v>ma</v>
+        <v>Ma</v>
       </c>
       <c r="G3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>fa</v>
+        <v>Fa</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>da</v>
+        <v>Da</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ta</v>
+        <v>Ta</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>na</v>
+        <v>Na</v>
       </c>
       <c r="K3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>la</v>
+        <v>La</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ga</v>
+        <v>Ga</v>
       </c>
       <c r="M3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ka</v>
+        <v>Ka</v>
       </c>
       <c r="N3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ha</v>
+        <v>Ha</v>
       </c>
       <c r="O3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ja</v>
+        <v>Ja</v>
       </c>
       <c r="P3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>qa</v>
+        <v>Qa</v>
       </c>
       <c r="Q3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>xa</v>
+        <v>Xa</v>
       </c>
       <c r="R3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>zha</v>
+        <v>ZHa</v>
       </c>
       <c r="S3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>cha</v>
+        <v>CHa</v>
       </c>
       <c r="T3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>sha</v>
+        <v>SHa</v>
       </c>
       <c r="U3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ra</v>
+        <v>Ra</v>
       </c>
       <c r="V3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>za</v>
+        <v>Za</v>
       </c>
       <c r="W3" s="1" t="str">
         <f>_xlfn.CONCAT(W$2,$B3)</f>
-        <v>ca</v>
+        <v>Ca</v>
       </c>
       <c r="X3" s="1" t="str">
         <f>_xlfn.CONCAT(X$2,$B3)</f>
-        <v>sa</v>
+        <v>Sa</v>
       </c>
       <c r="Y3" s="1" t="str">
-        <f t="shared" ref="Y3:Y19" si="1">_xlfn.CONCAT(Y$2,$B3)</f>
-        <v>^a</v>
+        <f>_xlfn.CONCAT(Z3,$B3)</f>
+        <v>Øa</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+    <row r="4" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xlfn.CONCAT(D$2,$B4)</f>
-        <v>bia</v>
+        <v>Bia</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>_xlfn.CONCAT(E$2,$B4)</f>
-        <v>pia</v>
+        <v>Pia</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>mia</v>
+        <v>Mia</v>
       </c>
       <c r="G4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fia</v>
+        <v>Fia</v>
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>dia</v>
+        <v>Dia</v>
       </c>
       <c r="I4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>tia</v>
+        <v>Tia</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>nia</v>
+        <v>Nia</v>
       </c>
       <c r="K4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>lia</v>
+        <v>Lia</v>
       </c>
       <c r="L4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>gia</v>
+        <v>Gia</v>
       </c>
       <c r="M4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>kia</v>
+        <v>Kia</v>
       </c>
       <c r="N4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>hia</v>
+        <v>Hia</v>
       </c>
       <c r="O4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>jia</v>
+        <v>Jia</v>
       </c>
       <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>qia</v>
+        <v>Qia</v>
       </c>
       <c r="Q4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>xia</v>
+        <v>Xia</v>
       </c>
       <c r="R4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zhia</v>
+        <v>ZHia</v>
       </c>
       <c r="S4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>chia</v>
+        <v>CHia</v>
       </c>
       <c r="T4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>shia</v>
+        <v>SHia</v>
       </c>
       <c r="U4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ria</v>
+        <v>Ria</v>
       </c>
       <c r="V4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zia</v>
+        <v>Zia</v>
       </c>
       <c r="W4" s="7" t="str">
         <f>_xlfn.CONCAT(W$2,$B4)</f>
-        <v>cia</v>
+        <v>Cia</v>
       </c>
       <c r="X4" s="7" t="str">
         <f>_xlfn.CONCAT(X$2,$B4)</f>
-        <v>sia</v>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>^ia</v>
+        <v>Sia</v>
+      </c>
+      <c r="Y4" s="56" t="str">
+        <f t="shared" ref="Y4:Y42" si="1">_xlfn.CONCAT(Z4,$B4)</f>
+        <v>Yia</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="AA4" s="59" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+    <row r="5" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ref="D5:S33" si="2">_xlfn.CONCAT(D$2,$B5)</f>
-        <v>bua</v>
+        <v>Bua</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>pua</v>
+        <v>Pua</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>mua</v>
+        <v>Mua</v>
       </c>
       <c r="G5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fua</v>
+        <v>Fua</v>
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>dua</v>
+        <v>Dua</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>tua</v>
+        <v>Tua</v>
       </c>
       <c r="J5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>nua</v>
+        <v>Nua</v>
       </c>
       <c r="K5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>lua</v>
+        <v>Lua</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>gua</v>
+        <v>Gua</v>
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>kua</v>
+        <v>Kua</v>
       </c>
       <c r="N5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>hua</v>
+        <v>Hua</v>
       </c>
       <c r="O5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>jua</v>
+        <v>Jua</v>
       </c>
       <c r="P5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>qua</v>
+        <v>Qua</v>
       </c>
       <c r="Q5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>xua</v>
+        <v>Xua</v>
       </c>
       <c r="R5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>zhua</v>
+        <v>ZHua</v>
       </c>
       <c r="S5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>chua</v>
+        <v>CHua</v>
       </c>
       <c r="T5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>shua</v>
+        <v>SHua</v>
       </c>
       <c r="U5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>rua</v>
+        <v>Rua</v>
       </c>
       <c r="V5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zua</v>
+        <v>Zua</v>
       </c>
       <c r="W5" s="7" t="str">
-        <f t="shared" ref="W5:Y42" si="3">_xlfn.CONCAT(W$2,$B5)</f>
-        <v>cua</v>
+        <f t="shared" ref="W5:X42" si="3">_xlfn.CONCAT(W$2,$B5)</f>
+        <v>Cua</v>
       </c>
       <c r="X5" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>sua</v>
-      </c>
-      <c r="Y5" s="1" t="str">
+        <v>Sua</v>
+      </c>
+      <c r="Y5" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>^ua</v>
+        <v>Wua</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+    <row r="6" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -4301,298 +4204,301 @@
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>bo</v>
+        <v>Bo</v>
       </c>
       <c r="E6" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>po</v>
+        <v>Po</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>mo</v>
+        <v>Mo</v>
       </c>
       <c r="G6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fo</v>
+        <v>Fo</v>
       </c>
       <c r="H6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>do</v>
+        <v>Do</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>to</v>
+        <v>To</v>
       </c>
       <c r="J6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>no</v>
+        <v>No</v>
       </c>
       <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>lo</v>
+        <v>Lo</v>
       </c>
       <c r="L6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>go</v>
+        <v>Go</v>
       </c>
       <c r="M6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ko</v>
+        <v>Ko</v>
       </c>
       <c r="N6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ho</v>
+        <v>Ho</v>
       </c>
       <c r="O6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>jo</v>
+        <v>Jo</v>
       </c>
       <c r="P6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>qo</v>
+        <v>Qo</v>
       </c>
       <c r="Q6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>xo</v>
+        <v>Xo</v>
       </c>
       <c r="R6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zho</v>
+        <v>ZHo</v>
       </c>
       <c r="S6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>cho</v>
+        <v>CHo</v>
       </c>
       <c r="T6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>sho</v>
+        <v>SHo</v>
       </c>
       <c r="U6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ro</v>
+        <v>Ro</v>
       </c>
       <c r="V6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zo</v>
+        <v>Zo</v>
       </c>
       <c r="W6" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>co</v>
+        <v>Co</v>
       </c>
       <c r="X6" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>so</v>
+        <v>So</v>
       </c>
       <c r="Y6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>^o</v>
+        <v>Øo</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
+      </c>
+      <c r="AA6" s="59" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+    <row r="7" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ref="D7:V7" si="4">_xlfn.CONCAT(D$2,$B7)</f>
-        <v>bio</v>
+        <v>Bio</v>
       </c>
       <c r="E7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>pio</v>
+        <v>Pio</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>mio</v>
+        <v>Mio</v>
       </c>
       <c r="G7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>fio</v>
+        <v>Fio</v>
       </c>
       <c r="H7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>dio</v>
+        <v>Dio</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>tio</v>
+        <v>Tio</v>
       </c>
       <c r="J7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>nio</v>
+        <v>Nio</v>
       </c>
       <c r="K7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>lio</v>
+        <v>Lio</v>
       </c>
       <c r="L7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>gio</v>
+        <v>Gio</v>
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>kio</v>
+        <v>Kio</v>
       </c>
       <c r="N7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>hio</v>
+        <v>Hio</v>
       </c>
       <c r="O7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>jio</v>
+        <v>Jio</v>
       </c>
       <c r="P7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>qio</v>
+        <v>Qio</v>
       </c>
       <c r="Q7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>xio</v>
+        <v>Xio</v>
       </c>
       <c r="R7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>zhio</v>
+        <v>ZHio</v>
       </c>
       <c r="S7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>chio</v>
+        <v>CHio</v>
       </c>
       <c r="T7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>shio</v>
+        <v>SHio</v>
       </c>
       <c r="U7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>rio</v>
+        <v>Rio</v>
       </c>
       <c r="V7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>zio</v>
+        <v>Zio</v>
       </c>
       <c r="W7" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cio</v>
+        <v>Cio</v>
       </c>
       <c r="X7" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>sio</v>
-      </c>
-      <c r="Y7" s="1" t="str">
+        <v>Sio</v>
+      </c>
+      <c r="Y7" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>^io</v>
+        <v>Yio</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+    <row r="8" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>buo</v>
+        <v>Buo</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>puo</v>
+        <v>Puo</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>muo</v>
+        <v>Muo</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>fuo</v>
+        <v>Fuo</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>duo</v>
+        <v>Duo</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>tuo</v>
+        <v>Tuo</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nuo</v>
+        <v>Nuo</v>
       </c>
       <c r="K8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>luo</v>
+        <v>Luo</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>guo</v>
+        <v>Guo</v>
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>kuo</v>
+        <v>Kuo</v>
       </c>
       <c r="N8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>huo</v>
+        <v>Huo</v>
       </c>
       <c r="O8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>juo</v>
+        <v>Juo</v>
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>quo</v>
+        <v>Quo</v>
       </c>
       <c r="Q8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>xuo</v>
+        <v>Xuo</v>
       </c>
       <c r="R8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>zhuo</v>
+        <v>ZHuo</v>
       </c>
       <c r="S8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>chuo</v>
+        <v>CHuo</v>
       </c>
       <c r="T8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>shuo</v>
+        <v>SHuo</v>
       </c>
       <c r="U8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ruo</v>
+        <v>Ruo</v>
       </c>
       <c r="V8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>zuo</v>
+        <v>Zuo</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cuo</v>
+        <v>Cuo</v>
       </c>
       <c r="X8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>suo</v>
-      </c>
-      <c r="Y8" s="1" t="str">
+        <v>Suo</v>
+      </c>
+      <c r="Y8" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>^uo</v>
+        <v>Wuo</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+    <row r="9" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -4601,398 +4507,401 @@
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>be</v>
+        <v>Be</v>
       </c>
       <c r="E9" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>pe</v>
+        <v>Pe</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>me</v>
+        <v>Me</v>
       </c>
       <c r="G9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fe</v>
+        <v>Fe</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>de</v>
+        <v>De</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>te</v>
+        <v>Te</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ne</v>
+        <v>Ne</v>
       </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>le</v>
+        <v>Le</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ge</v>
+        <v>Ge</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ke</v>
+        <v>Ke</v>
       </c>
       <c r="N9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>he</v>
+        <v>He</v>
       </c>
       <c r="O9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>je</v>
+        <v>Je</v>
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>qe</v>
+        <v>Qe</v>
       </c>
       <c r="Q9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>xe</v>
+        <v>Xe</v>
       </c>
       <c r="R9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>zhe</v>
+        <v>ZHe</v>
       </c>
       <c r="S9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>che</v>
+        <v>CHe</v>
       </c>
       <c r="T9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>she</v>
+        <v>SHe</v>
       </c>
       <c r="U9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>re</v>
+        <v>Re</v>
       </c>
       <c r="V9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ze</v>
+        <v>Ze</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ce</v>
+        <v>Ce</v>
       </c>
       <c r="X9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>se</v>
+        <v>Se</v>
       </c>
       <c r="Y9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>^e</v>
+        <v>Øe</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+    <row r="10" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>bê</v>
+        <v>Bê</v>
       </c>
       <c r="E10" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>pê</v>
+        <v>Pê</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>mê</v>
+        <v>Mê</v>
       </c>
       <c r="G10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fê</v>
+        <v>Fê</v>
       </c>
       <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>dê</v>
+        <v>Dê</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>tê</v>
+        <v>Tê</v>
       </c>
       <c r="J10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>nê</v>
+        <v>Nê</v>
       </c>
       <c r="K10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>lê</v>
+        <v>Lê</v>
       </c>
       <c r="L10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>gê</v>
+        <v>Gê</v>
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>kê</v>
+        <v>Kê</v>
       </c>
       <c r="N10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>hê</v>
+        <v>Hê</v>
       </c>
       <c r="O10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>jê</v>
+        <v>Jê</v>
       </c>
       <c r="P10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>qê</v>
+        <v>Qê</v>
       </c>
       <c r="Q10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>xê</v>
+        <v>Xê</v>
       </c>
       <c r="R10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zhê</v>
+        <v>ZHê</v>
       </c>
       <c r="S10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>chê</v>
+        <v>CHê</v>
       </c>
       <c r="T10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>shê</v>
+        <v>SHê</v>
       </c>
       <c r="U10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>rê</v>
+        <v>Rê</v>
       </c>
       <c r="V10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zê</v>
+        <v>Zê</v>
       </c>
       <c r="W10" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cê</v>
+        <v>Cê</v>
       </c>
       <c r="X10" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>sê</v>
+        <v>Sê</v>
       </c>
       <c r="Y10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>^ê</v>
+        <v>Øê</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+    <row r="11" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>biê</v>
+        <v>Biê</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>piê</v>
+        <v>Piê</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>miê</v>
+        <v>Miê</v>
       </c>
       <c r="G11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fiê</v>
+        <v>Fiê</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>diê</v>
+        <v>Diê</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>tiê</v>
+        <v>Tiê</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>niê</v>
+        <v>Niê</v>
       </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>liê</v>
+        <v>Liê</v>
       </c>
       <c r="L11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>giê</v>
+        <v>Giê</v>
       </c>
       <c r="M11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>kiê</v>
+        <v>Kiê</v>
       </c>
       <c r="N11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>hiê</v>
+        <v>Hiê</v>
       </c>
       <c r="O11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>jiê</v>
+        <v>Jiê</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>qiê</v>
+        <v>Qiê</v>
       </c>
       <c r="Q11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>xiê</v>
+        <v>Xiê</v>
       </c>
       <c r="R11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zhiê</v>
+        <v>ZHiê</v>
       </c>
       <c r="S11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>chiê</v>
+        <v>CHiê</v>
       </c>
       <c r="T11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>shiê</v>
+        <v>SHiê</v>
       </c>
       <c r="U11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>riê</v>
+        <v>Riê</v>
       </c>
       <c r="V11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ziê</v>
+        <v>Ziê</v>
       </c>
       <c r="W11" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>ciê</v>
+        <v>Ciê</v>
       </c>
       <c r="X11" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>siê</v>
-      </c>
-      <c r="Y11" s="1" t="str">
+        <v>Siê</v>
+      </c>
+      <c r="Y11" s="56" t="str">
         <f t="shared" si="1"/>
-        <v>^iê</v>
+        <v>Yiê</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+    <row r="12" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>büê</v>
+        <v>Büê</v>
       </c>
       <c r="E12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>püê</v>
+        <v>Püê</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>müê</v>
+        <v>Müê</v>
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>füê</v>
+        <v>Füê</v>
       </c>
       <c r="H12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>düê</v>
+        <v>Düê</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>tüê</v>
+        <v>Tüê</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nüê</v>
+        <v>Nüê</v>
       </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lüê</v>
+        <v>Lüê</v>
       </c>
       <c r="L12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>güê</v>
+        <v>Güê</v>
       </c>
       <c r="M12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>küê</v>
+        <v>Küê</v>
       </c>
       <c r="N12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>hüê</v>
+        <v>Hüê</v>
       </c>
       <c r="O12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>jüê</v>
+        <v>Jüê</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>qüê</v>
+        <v>Qüê</v>
       </c>
       <c r="Q12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>xüê</v>
+        <v>Xüê</v>
       </c>
       <c r="R12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zhüê</v>
+        <v>ZHüê</v>
       </c>
       <c r="S12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>chüê</v>
+        <v>CHüê</v>
       </c>
       <c r="T12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>shüê</v>
+        <v>SHüê</v>
       </c>
       <c r="U12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>rüê</v>
+        <v>Rüê</v>
       </c>
       <c r="V12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>züê</v>
+        <v>Züê</v>
       </c>
       <c r="W12" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cüê</v>
+        <v>Cüê</v>
       </c>
       <c r="X12" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>süê</v>
-      </c>
-      <c r="Y12" s="1" t="str">
+        <v>Süê</v>
+      </c>
+      <c r="Y12" s="60" t="str">
         <f t="shared" si="1"/>
-        <v>^üê</v>
+        <v>Ÿüê</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>87</v>
+        <v>139</v>
+      </c>
+      <c r="AA12" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+    <row r="13" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -5001,292 +4910,292 @@
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>bi</v>
+        <v>Bi</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pi</v>
+        <v>Pi</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>mi</v>
+        <v>Mi</v>
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fi</v>
+        <v>Fi</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>di</v>
+        <v>Di</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ti</v>
+        <v>Ti</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ni</v>
+        <v>Ni</v>
       </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>li</v>
+        <v>Li</v>
       </c>
       <c r="L13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>gi</v>
+        <v>Gi</v>
       </c>
       <c r="M13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ki</v>
+        <v>Ki</v>
       </c>
       <c r="N13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>hi</v>
+        <v>Hi</v>
       </c>
       <c r="O13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ji</v>
+        <v>Ji</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>qi</v>
+        <v>Qi</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>xi</v>
+        <v>Xi</v>
       </c>
       <c r="R13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zhi</v>
+        <v>ZHi</v>
       </c>
       <c r="S13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>chi</v>
+        <v>CHi</v>
       </c>
       <c r="T13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>shi</v>
+        <v>SHi</v>
       </c>
       <c r="U13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ri</v>
+        <v>Ri</v>
       </c>
       <c r="V13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zi</v>
+        <v>Zi</v>
       </c>
       <c r="W13" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>ci</v>
+        <v>Ci</v>
       </c>
       <c r="X13" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>si</v>
-      </c>
-      <c r="Y13" s="1" t="str">
+        <v>Si</v>
+      </c>
+      <c r="Y13" s="60" t="str">
         <f t="shared" si="1"/>
-        <v>^i</v>
+        <v>Yi</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+    <row r="14" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>bɿ</v>
+        <v>Bɿ</v>
       </c>
       <c r="E14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>pɿ</v>
+        <v>Pɿ</v>
       </c>
       <c r="F14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>mɿ</v>
+        <v>Mɿ</v>
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fɿ</v>
+        <v>Fɿ</v>
       </c>
       <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>dɿ</v>
+        <v>Dɿ</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>tɿ</v>
+        <v>Tɿ</v>
       </c>
       <c r="J14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>nɿ</v>
+        <v>Nɿ</v>
       </c>
       <c r="K14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>lɿ</v>
+        <v>Lɿ</v>
       </c>
       <c r="L14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>gɿ</v>
+        <v>Gɿ</v>
       </c>
       <c r="M14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>kɿ</v>
+        <v>Kɿ</v>
       </c>
       <c r="N14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>hɿ</v>
+        <v>Hɿ</v>
       </c>
       <c r="O14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>jɿ</v>
+        <v>Jɿ</v>
       </c>
       <c r="P14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>qɿ</v>
+        <v>Qɿ</v>
       </c>
       <c r="Q14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>xɿ</v>
+        <v>Xɿ</v>
       </c>
       <c r="R14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zhɿ</v>
+        <v>ZHɿ</v>
       </c>
       <c r="S14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>chɿ</v>
+        <v>CHɿ</v>
       </c>
       <c r="T14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>shɿ</v>
+        <v>SHɿ</v>
       </c>
       <c r="U14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>rɿ</v>
+        <v>Rɿ</v>
       </c>
       <c r="V14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>zɿ</v>
+        <v>Zɿ</v>
       </c>
       <c r="W14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cɿ</v>
+        <v>Cɿ</v>
       </c>
       <c r="X14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>sɿ</v>
+        <v>Sɿ</v>
       </c>
       <c r="Y14" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>^ɿ</v>
+        <v>ɿ</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+    <row r="15" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>bʅ</v>
+        <v>Bʅ</v>
       </c>
       <c r="E15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>pʅ</v>
+        <v>Pʅ</v>
       </c>
       <c r="F15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>mʅ</v>
+        <v>Mʅ</v>
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fʅ</v>
+        <v>Fʅ</v>
       </c>
       <c r="H15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>dʅ</v>
+        <v>Dʅ</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>tʅ</v>
+        <v>Tʅ</v>
       </c>
       <c r="J15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>nʅ</v>
+        <v>Nʅ</v>
       </c>
       <c r="K15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>lʅ</v>
+        <v>Lʅ</v>
       </c>
       <c r="L15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>gʅ</v>
+        <v>Gʅ</v>
       </c>
       <c r="M15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>kʅ</v>
+        <v>Kʅ</v>
       </c>
       <c r="N15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>hʅ</v>
+        <v>Hʅ</v>
       </c>
       <c r="O15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>jʅ</v>
+        <v>Jʅ</v>
       </c>
       <c r="P15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>qʅ</v>
+        <v>Qʅ</v>
       </c>
       <c r="Q15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>xʅ</v>
+        <v>Xʅ</v>
       </c>
       <c r="R15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>zhʅ</v>
+        <v>ZHʅ</v>
       </c>
       <c r="S15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>chʅ</v>
+        <v>CHʅ</v>
       </c>
       <c r="T15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>shʅ</v>
+        <v>SHʅ</v>
       </c>
       <c r="U15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>rʅ</v>
+        <v>Rʅ</v>
       </c>
       <c r="V15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zʅ</v>
+        <v>Zʅ</v>
       </c>
       <c r="W15" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cʅ</v>
+        <v>Cʅ</v>
       </c>
       <c r="X15" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>sʅ</v>
+        <v>Sʅ</v>
       </c>
       <c r="Y15" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>^ʅ</v>
+        <v>ʅ</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+    <row r="16" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -5295,2702 +5204,2702 @@
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>bu</v>
+        <v>Bu</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pu</v>
+        <v>Pu</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>mu</v>
+        <v>Mu</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>fu</v>
+        <v>Fu</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>du</v>
+        <v>Du</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>tu</v>
+        <v>Tu</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nu</v>
+        <v>Nu</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lu</v>
+        <v>Lu</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>gu</v>
+        <v>Gu</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ku</v>
+        <v>Ku</v>
       </c>
       <c r="N16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>hu</v>
+        <v>Hu</v>
       </c>
       <c r="O16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ju</v>
+        <v>Ju</v>
       </c>
       <c r="P16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>qu</v>
+        <v>Qu</v>
       </c>
       <c r="Q16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>xu</v>
+        <v>Xu</v>
       </c>
       <c r="R16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>zhu</v>
+        <v>ZHu</v>
       </c>
       <c r="S16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>chu</v>
+        <v>CHu</v>
       </c>
       <c r="T16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>shu</v>
+        <v>SHu</v>
       </c>
       <c r="U16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ru</v>
+        <v>Ru</v>
       </c>
       <c r="V16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>zu</v>
+        <v>Zu</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cu</v>
+        <v>Cu</v>
       </c>
       <c r="X16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>su</v>
-      </c>
-      <c r="Y16" s="1" t="str">
+        <v>Su</v>
+      </c>
+      <c r="Y16" s="60" t="str">
         <f t="shared" si="1"/>
-        <v>^u</v>
+        <v>Wu</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>bü</v>
+        <v>Bü</v>
       </c>
       <c r="E17" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>pü</v>
+        <v>Pü</v>
       </c>
       <c r="F17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>mü</v>
+        <v>Mü</v>
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fü</v>
+        <v>Fü</v>
       </c>
       <c r="H17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>dü</v>
+        <v>Dü</v>
       </c>
       <c r="I17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>tü</v>
+        <v>Tü</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nü</v>
+        <v>Nü</v>
       </c>
       <c r="K17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lü</v>
+        <v>Lü</v>
       </c>
       <c r="L17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>gü</v>
+        <v>Gü</v>
       </c>
       <c r="M17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>kü</v>
+        <v>Kü</v>
       </c>
       <c r="N17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>hü</v>
+        <v>Hü</v>
       </c>
       <c r="O17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>jü</v>
+        <v>Jü</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>qü</v>
+        <v>Qü</v>
       </c>
       <c r="Q17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>xü</v>
+        <v>Xü</v>
       </c>
       <c r="R17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zhü</v>
+        <v>ZHü</v>
       </c>
       <c r="S17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>chü</v>
+        <v>CHü</v>
       </c>
       <c r="T17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>shü</v>
+        <v>SHü</v>
       </c>
       <c r="U17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>rü</v>
+        <v>Rü</v>
       </c>
       <c r="V17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zü</v>
+        <v>Zü</v>
       </c>
       <c r="W17" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cü</v>
+        <v>Cü</v>
       </c>
       <c r="X17" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>sü</v>
-      </c>
-      <c r="Y17" s="1" t="str">
+        <v>Sü</v>
+      </c>
+      <c r="Y17" s="60" t="str">
         <f t="shared" si="1"/>
-        <v>^ü</v>
+        <v>Ÿü</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>ber</v>
+        <v>Ber</v>
       </c>
       <c r="E18" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>per</v>
+        <v>Per</v>
       </c>
       <c r="F18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>mer</v>
+        <v>Mer</v>
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>fer</v>
+        <v>Fer</v>
       </c>
       <c r="H18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>der</v>
+        <v>Der</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ter</v>
+        <v>Ter</v>
       </c>
       <c r="J18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ner</v>
+        <v>Ner</v>
       </c>
       <c r="K18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ler</v>
+        <v>Ler</v>
       </c>
       <c r="L18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ger</v>
+        <v>Ger</v>
       </c>
       <c r="M18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>ker</v>
+        <v>Ker</v>
       </c>
       <c r="N18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>her</v>
+        <v>Her</v>
       </c>
       <c r="O18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>jer</v>
+        <v>Jer</v>
       </c>
       <c r="P18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>qer</v>
+        <v>Qer</v>
       </c>
       <c r="Q18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>xer</v>
+        <v>Xer</v>
       </c>
       <c r="R18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zher</v>
+        <v>ZHer</v>
       </c>
       <c r="S18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>cher</v>
+        <v>CHer</v>
       </c>
       <c r="T18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>sher</v>
+        <v>SHer</v>
       </c>
       <c r="U18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>rer</v>
+        <v>Rer</v>
       </c>
       <c r="V18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>zer</v>
+        <v>Zer</v>
       </c>
       <c r="W18" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cer</v>
+        <v>Cer</v>
       </c>
       <c r="X18" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>ser</v>
+        <v>Ser</v>
       </c>
       <c r="Y18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>^er</v>
+        <v>Øer</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>81</v>
+      <c r="A19" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>bai</v>
+        <v>Bai</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pai</v>
+        <v>Pai</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>mai</v>
+        <v>Mai</v>
       </c>
       <c r="G19" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fai</v>
+        <v>Fai</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>dai</v>
+        <v>Dai</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>tai</v>
+        <v>Tai</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>nai</v>
+        <v>Nai</v>
       </c>
       <c r="K19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lai</v>
+        <v>Lai</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>gai</v>
+        <v>Gai</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>kai</v>
+        <v>Kai</v>
       </c>
       <c r="N19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>hai</v>
+        <v>Hai</v>
       </c>
       <c r="O19" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>jai</v>
+        <v>Jai</v>
       </c>
       <c r="P19" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>qai</v>
+        <v>Qai</v>
       </c>
       <c r="Q19" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>xai</v>
+        <v>Xai</v>
       </c>
       <c r="R19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>zhai</v>
+        <v>ZHai</v>
       </c>
       <c r="S19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>chai</v>
+        <v>CHai</v>
       </c>
       <c r="T19" s="1" t="str">
         <f t="shared" ref="T19:V32" si="5">_xlfn.CONCAT(T$2,$B19)</f>
-        <v>shai</v>
+        <v>SHai</v>
       </c>
       <c r="U19" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>rai</v>
+        <v>Rai</v>
       </c>
       <c r="V19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>zai</v>
+        <v>Zai</v>
       </c>
       <c r="W19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cai</v>
+        <v>Cai</v>
       </c>
       <c r="X19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>sai</v>
+        <v>Sai</v>
       </c>
       <c r="Y19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>^ai</v>
+        <v>Øai</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>buai</v>
+        <v>Buai</v>
       </c>
       <c r="E20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>puai</v>
+        <v>Puai</v>
       </c>
       <c r="F20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>muai</v>
+        <v>Muai</v>
       </c>
       <c r="G20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fuai</v>
+        <v>Fuai</v>
       </c>
       <c r="H20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>duai</v>
+        <v>Duai</v>
       </c>
       <c r="I20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>tuai</v>
+        <v>Tuai</v>
       </c>
       <c r="J20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>nuai</v>
+        <v>Nuai</v>
       </c>
       <c r="K20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>luai</v>
+        <v>Luai</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>guai</v>
+        <v>Guai</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>kuai</v>
+        <v>Kuai</v>
       </c>
       <c r="N20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>huai</v>
+        <v>Huai</v>
       </c>
       <c r="O20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>juai</v>
+        <v>Juai</v>
       </c>
       <c r="P20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>quai</v>
+        <v>Quai</v>
       </c>
       <c r="Q20" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>xuai</v>
+        <v>Xuai</v>
       </c>
       <c r="R20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>zhuai</v>
+        <v>ZHuai</v>
       </c>
       <c r="S20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>chuai</v>
+        <v>CHuai</v>
       </c>
       <c r="T20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>shuai</v>
+        <v>SHuai</v>
       </c>
       <c r="U20" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>ruai</v>
+        <v>Ruai</v>
       </c>
       <c r="V20" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>zuai</v>
+        <v>Zuai</v>
       </c>
       <c r="W20" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cuai</v>
+        <v>Cuai</v>
       </c>
       <c r="X20" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>suai</v>
-      </c>
-      <c r="Y20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^uai</v>
+        <v>Suai</v>
+      </c>
+      <c r="Y20" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Wuai</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>bêi</v>
+        <v>Bêi</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pêi</v>
+        <v>Pêi</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>mêi</v>
+        <v>Mêi</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>fêi</v>
+        <v>Fêi</v>
       </c>
       <c r="H21" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>dêi</v>
+        <v>Dêi</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>têi</v>
+        <v>Têi</v>
       </c>
       <c r="J21" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>nêi</v>
+        <v>Nêi</v>
       </c>
       <c r="K21" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>lêi</v>
+        <v>Lêi</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>gêi</v>
+        <v>Gêi</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>kêi</v>
+        <v>Kêi</v>
       </c>
       <c r="N21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>hêi</v>
+        <v>Hêi</v>
       </c>
       <c r="O21" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>jêi</v>
+        <v>Jêi</v>
       </c>
       <c r="P21" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>qêi</v>
+        <v>Qêi</v>
       </c>
       <c r="Q21" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>xêi</v>
+        <v>Xêi</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>zhêi</v>
+        <v>ZHêi</v>
       </c>
       <c r="S21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>chêi</v>
+        <v>CHêi</v>
       </c>
       <c r="T21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>shêi</v>
+        <v>SHêi</v>
       </c>
       <c r="U21" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>rêi</v>
+        <v>Rêi</v>
       </c>
       <c r="V21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>zêi</v>
+        <v>Zêi</v>
       </c>
       <c r="W21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cêi</v>
+        <v>Cêi</v>
       </c>
       <c r="X21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>sêi</v>
+        <v>Sêi</v>
       </c>
       <c r="Y21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^êi</v>
+        <f t="shared" si="1"/>
+        <v>Øêi</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>buêi</v>
+        <v>Buêi</v>
       </c>
       <c r="E22" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>puêi</v>
+        <v>Puêi</v>
       </c>
       <c r="F22" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>muêi</v>
+        <v>Muêi</v>
       </c>
       <c r="G22" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fuêi</v>
+        <v>Fuêi</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>duêi</v>
+        <v>Duêi</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>tuêi</v>
+        <v>Tuêi</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>nuêi</v>
+        <v>Nuêi</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>luêi</v>
+        <v>Luêi</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>guêi</v>
+        <v>Guêi</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>kuêi</v>
+        <v>Kuêi</v>
       </c>
       <c r="N22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>huêi</v>
+        <v>Huêi</v>
       </c>
       <c r="O22" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>juêi</v>
+        <v>Juêi</v>
       </c>
       <c r="P22" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>quêi</v>
+        <v>Quêi</v>
       </c>
       <c r="Q22" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>xuêi</v>
+        <v>Xuêi</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>zhuêi</v>
+        <v>ZHuêi</v>
       </c>
       <c r="S22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>chuêi</v>
+        <v>CHuêi</v>
       </c>
       <c r="T22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>shuêi</v>
+        <v>SHuêi</v>
       </c>
       <c r="U22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>ruêi</v>
+        <v>Ruêi</v>
       </c>
       <c r="V22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>zuêi</v>
+        <v>Zuêi</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cuêi</v>
+        <v>Cuêi</v>
       </c>
       <c r="X22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>suêi</v>
-      </c>
-      <c r="Y22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^uêi</v>
+        <v>Suêi</v>
+      </c>
+      <c r="Y22" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Wuêi</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
-        <v>82</v>
+      <c r="A23" s="53" t="s">
+        <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>bau</v>
+        <v>Bau</v>
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pau</v>
+        <v>Pau</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>mau</v>
+        <v>Mau</v>
       </c>
       <c r="G23" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fau</v>
+        <v>Fau</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>dau</v>
+        <v>Dau</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>tau</v>
+        <v>Tau</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>nau</v>
+        <v>Nau</v>
       </c>
       <c r="K23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lau</v>
+        <v>Lau</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>gau</v>
+        <v>Gau</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>kau</v>
+        <v>Kau</v>
       </c>
       <c r="N23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>hau</v>
+        <v>Hau</v>
       </c>
       <c r="O23" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>jau</v>
+        <v>Jau</v>
       </c>
       <c r="P23" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>qau</v>
+        <v>Qau</v>
       </c>
       <c r="Q23" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>xau</v>
+        <v>Xau</v>
       </c>
       <c r="R23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>zhau</v>
+        <v>ZHau</v>
       </c>
       <c r="S23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>chau</v>
+        <v>CHau</v>
       </c>
       <c r="T23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>shau</v>
+        <v>SHau</v>
       </c>
       <c r="U23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rau</v>
+        <v>Rau</v>
       </c>
       <c r="V23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>zau</v>
+        <v>Zau</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cau</v>
+        <v>Cau</v>
       </c>
       <c r="X23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>sau</v>
+        <v>Sau</v>
       </c>
       <c r="Y23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^au</v>
+        <f t="shared" si="1"/>
+        <v>Øau</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>biau</v>
+        <v>Biau</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>piau</v>
+        <v>Piau</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>miau</v>
+        <v>Miau</v>
       </c>
       <c r="G24" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fiau</v>
+        <v>Fiau</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>diau</v>
+        <v>Diau</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>tiau</v>
+        <v>Tiau</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>niau</v>
+        <v>Niau</v>
       </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>liau</v>
+        <v>Liau</v>
       </c>
       <c r="L24" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>giau</v>
+        <v>Giau</v>
       </c>
       <c r="M24" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>kiau</v>
+        <v>Kiau</v>
       </c>
       <c r="N24" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>hiau</v>
+        <v>Hiau</v>
       </c>
       <c r="O24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>jiau</v>
+        <v>Jiau</v>
       </c>
       <c r="P24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>qiau</v>
+        <v>Qiau</v>
       </c>
       <c r="Q24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>xiau</v>
+        <v>Xiau</v>
       </c>
       <c r="R24" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>zhiau</v>
+        <v>ZHiau</v>
       </c>
       <c r="S24" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>chiau</v>
+        <v>CHiau</v>
       </c>
       <c r="T24" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>shiau</v>
+        <v>SHiau</v>
       </c>
       <c r="U24" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>riau</v>
+        <v>Riau</v>
       </c>
       <c r="V24" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>ziau</v>
+        <v>Ziau</v>
       </c>
       <c r="W24" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>ciau</v>
+        <v>Ciau</v>
       </c>
       <c r="X24" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>siau</v>
-      </c>
-      <c r="Y24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^iau</v>
+        <v>Siau</v>
+      </c>
+      <c r="Y24" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Yiau</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>bou</v>
+        <v>Bou</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pou</v>
+        <v>Pou</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>mou</v>
+        <v>Mou</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>fou</v>
+        <v>Fou</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>dou</v>
+        <v>Dou</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>tou</v>
+        <v>Tou</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>nou</v>
+        <v>Nou</v>
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lou</v>
+        <v>Lou</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>gou</v>
+        <v>Gou</v>
       </c>
       <c r="M25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>kou</v>
+        <v>Kou</v>
       </c>
       <c r="N25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>hou</v>
+        <v>Hou</v>
       </c>
       <c r="O25" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>jou</v>
+        <v>Jou</v>
       </c>
       <c r="P25" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>qou</v>
+        <v>Qou</v>
       </c>
       <c r="Q25" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>xou</v>
+        <v>Xou</v>
       </c>
       <c r="R25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>zhou</v>
+        <v>ZHou</v>
       </c>
       <c r="S25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>chou</v>
+        <v>CHou</v>
       </c>
       <c r="T25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>shou</v>
+        <v>SHou</v>
       </c>
       <c r="U25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rou</v>
+        <v>Rou</v>
       </c>
       <c r="V25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>zou</v>
+        <v>Zou</v>
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cou</v>
+        <v>Cou</v>
       </c>
       <c r="X25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>sou</v>
+        <v>Sou</v>
       </c>
       <c r="Y25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^ou</v>
+        <f t="shared" si="1"/>
+        <v>Øou</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>biou</v>
+        <v>Biou</v>
       </c>
       <c r="E26" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>piou</v>
+        <v>Piou</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>miou</v>
+        <v>Miou</v>
       </c>
       <c r="G26" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fiou</v>
+        <v>Fiou</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>diou</v>
+        <v>Diou</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>tiou</v>
+        <v>Tiou</v>
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>niou</v>
+        <v>Niou</v>
       </c>
       <c r="K26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>liou</v>
+        <v>Liou</v>
       </c>
       <c r="L26" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>giou</v>
+        <v>Giou</v>
       </c>
       <c r="M26" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>kiou</v>
+        <v>Kiou</v>
       </c>
       <c r="N26" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>hiou</v>
+        <v>Hiou</v>
       </c>
       <c r="O26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>jiou</v>
+        <v>Jiou</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>qiou</v>
+        <v>Qiou</v>
       </c>
       <c r="Q26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>xiou</v>
+        <v>Xiou</v>
       </c>
       <c r="R26" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>zhiou</v>
+        <v>ZHiou</v>
       </c>
       <c r="S26" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>chiou</v>
+        <v>CHiou</v>
       </c>
       <c r="T26" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>shiou</v>
+        <v>SHiou</v>
       </c>
       <c r="U26" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>riou</v>
+        <v>Riou</v>
       </c>
       <c r="V26" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>ziou</v>
+        <v>Ziou</v>
       </c>
       <c r="W26" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>ciou</v>
+        <v>Ciou</v>
       </c>
       <c r="X26" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>siou</v>
-      </c>
-      <c r="Y26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^iou</v>
+        <v>Siou</v>
+      </c>
+      <c r="Y26" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Yiou</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>83</v>
+      <c r="A27" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ban</v>
+        <v>Ban</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pan</v>
+        <v>Pan</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>man</v>
+        <v>Man</v>
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>fan</v>
+        <v>Fan</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>dan</v>
+        <v>Dan</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>tan</v>
+        <v>Tan</v>
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>nan</v>
+        <v>Nan</v>
       </c>
       <c r="K27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lan</v>
+        <v>Lan</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>gan</v>
+        <v>Gan</v>
       </c>
       <c r="M27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>kan</v>
+        <v>Kan</v>
       </c>
       <c r="N27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>han</v>
+        <v>Han</v>
       </c>
       <c r="O27" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>jan</v>
+        <v>Jan</v>
       </c>
       <c r="P27" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>qan</v>
+        <v>Qan</v>
       </c>
       <c r="Q27" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>xan</v>
+        <v>Xan</v>
       </c>
       <c r="R27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>zhan</v>
+        <v>ZHan</v>
       </c>
       <c r="S27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>chan</v>
+        <v>CHan</v>
       </c>
       <c r="T27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>shan</v>
+        <v>SHan</v>
       </c>
       <c r="U27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>ran</v>
+        <v>Ran</v>
       </c>
       <c r="V27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>zan</v>
+        <v>Zan</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>can</v>
+        <v>Can</v>
       </c>
       <c r="X27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>san</v>
+        <v>San</v>
       </c>
       <c r="Y27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^an</v>
+        <f t="shared" si="1"/>
+        <v>Øan</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>biên</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>piên</v>
-      </c>
-      <c r="F28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>miên</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Buan</v>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Puan</v>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Muan</v>
       </c>
       <c r="G28" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fiên</v>
+        <v>Fuan</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>diên</v>
+        <v>Duan</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>tiên</v>
+        <v>Tuan</v>
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>niên</v>
+        <v>Nuan</v>
       </c>
       <c r="K28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>liên</v>
-      </c>
-      <c r="L28" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>giên</v>
-      </c>
-      <c r="M28" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>kiên</v>
-      </c>
-      <c r="N28" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>hiên</v>
-      </c>
-      <c r="O28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>jiên</v>
-      </c>
-      <c r="P28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>qiên</v>
-      </c>
-      <c r="Q28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>xiên</v>
-      </c>
-      <c r="R28" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>zhiên</v>
-      </c>
-      <c r="S28" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>chiên</v>
-      </c>
-      <c r="T28" s="7" t="str">
+        <v>Luan</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Guan</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Kuan</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Huan</v>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Juan</v>
+      </c>
+      <c r="P28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Quan</v>
+      </c>
+      <c r="Q28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Xuan</v>
+      </c>
+      <c r="R28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ZHuan</v>
+      </c>
+      <c r="S28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CHuan</v>
+      </c>
+      <c r="T28" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>shiên</v>
-      </c>
-      <c r="U28" s="7" t="str">
+        <v>SHuan</v>
+      </c>
+      <c r="U28" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>riên</v>
-      </c>
-      <c r="V28" s="7" t="str">
+        <v>Ruan</v>
+      </c>
+      <c r="V28" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>ziên</v>
-      </c>
-      <c r="W28" s="7" t="str">
+        <v>Zuan</v>
+      </c>
+      <c r="W28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ciên</v>
-      </c>
-      <c r="X28" s="7" t="str">
+        <v>Cuan</v>
+      </c>
+      <c r="X28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>siên</v>
-      </c>
-      <c r="Y28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^iên</v>
+        <v>Suan</v>
+      </c>
+      <c r="Y28" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Wuan</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>168</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>buan</v>
+        <v>Büan</v>
       </c>
       <c r="E29" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>puan</v>
+        <v>Püan</v>
       </c>
       <c r="F29" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>muan</v>
+        <v>Müan</v>
       </c>
       <c r="G29" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fuan</v>
-      </c>
-      <c r="H29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>duan</v>
-      </c>
-      <c r="I29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>tuan</v>
-      </c>
-      <c r="J29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>nuan</v>
-      </c>
-      <c r="K29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>luan</v>
-      </c>
-      <c r="L29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>guan</v>
-      </c>
-      <c r="M29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>kuan</v>
-      </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>huan</v>
-      </c>
-      <c r="O29" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>juan</v>
-      </c>
-      <c r="P29" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>quan</v>
-      </c>
-      <c r="Q29" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>xuan</v>
-      </c>
-      <c r="R29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>zhuan</v>
-      </c>
-      <c r="S29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>chuan</v>
-      </c>
-      <c r="T29" s="1" t="str">
+        <v>Füan</v>
+      </c>
+      <c r="H29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Düan</v>
+      </c>
+      <c r="I29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Tüan</v>
+      </c>
+      <c r="J29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Nüan</v>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Lüan</v>
+      </c>
+      <c r="L29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Güan</v>
+      </c>
+      <c r="M29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Küan</v>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Hüan</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Jüan</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Qüan</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Xüan</v>
+      </c>
+      <c r="R29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>ZHüan</v>
+      </c>
+      <c r="S29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>CHüan</v>
+      </c>
+      <c r="T29" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>shuan</v>
-      </c>
-      <c r="U29" s="1" t="str">
+        <v>SHüan</v>
+      </c>
+      <c r="U29" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>ruan</v>
-      </c>
-      <c r="V29" s="1" t="str">
+        <v>Rüan</v>
+      </c>
+      <c r="V29" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>zuan</v>
-      </c>
-      <c r="W29" s="1" t="str">
+        <v>Züan</v>
+      </c>
+      <c r="W29" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cuan</v>
-      </c>
-      <c r="X29" s="1" t="str">
+        <v>Cüan</v>
+      </c>
+      <c r="X29" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>suan</v>
-      </c>
-      <c r="Y29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^uan</v>
+        <v>Süan</v>
+      </c>
+      <c r="Y29" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v>Ÿüan</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>büaên</v>
-      </c>
-      <c r="E30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>püaên</v>
-      </c>
-      <c r="F30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>müaên</v>
-      </c>
-      <c r="G30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>füaên</v>
-      </c>
-      <c r="H30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>düaên</v>
-      </c>
-      <c r="I30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>tüaên</v>
-      </c>
-      <c r="J30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>nüaên</v>
-      </c>
-      <c r="K30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>lüaên</v>
-      </c>
-      <c r="L30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>güaên</v>
-      </c>
-      <c r="M30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>küaên</v>
-      </c>
-      <c r="N30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>hüaên</v>
-      </c>
-      <c r="O30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>jüaên</v>
-      </c>
-      <c r="P30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>qüaên</v>
-      </c>
-      <c r="Q30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>xüaên</v>
-      </c>
-      <c r="R30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>zhüaên</v>
-      </c>
-      <c r="S30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>chüaên</v>
-      </c>
-      <c r="T30" s="7" t="str">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Ben</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Pen</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Men</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Fen</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Den</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Ten</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Nen</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Len</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Gen</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Ken</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Hen</v>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Jen</v>
+      </c>
+      <c r="P30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Qen</v>
+      </c>
+      <c r="Q30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Xen</v>
+      </c>
+      <c r="R30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ZHen</v>
+      </c>
+      <c r="S30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CHen</v>
+      </c>
+      <c r="T30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>shüaên</v>
-      </c>
-      <c r="U30" s="7" t="str">
+        <v>SHen</v>
+      </c>
+      <c r="U30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>rüaên</v>
-      </c>
-      <c r="V30" s="7" t="str">
+        <v>Ren</v>
+      </c>
+      <c r="V30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>züaên</v>
-      </c>
-      <c r="W30" s="7" t="str">
+        <v>Zen</v>
+      </c>
+      <c r="W30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cüaên</v>
-      </c>
-      <c r="X30" s="7" t="str">
+        <v>Cen</v>
+      </c>
+      <c r="X30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>süaên</v>
+        <v>Sen</v>
       </c>
       <c r="Y30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^üaên</v>
+        <f t="shared" si="1"/>
+        <v>Øen</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ben</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>pen</v>
-      </c>
-      <c r="F31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>men</v>
-      </c>
-      <c r="G31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>fen</v>
+        <v>55</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Buen</v>
+      </c>
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Puen</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Muen</v>
+      </c>
+      <c r="G31" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Fuen</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>den</v>
+        <v>Duen</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ten</v>
+        <v>Tuen</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>nen</v>
+        <v>Nuen</v>
       </c>
       <c r="K31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>len</v>
+        <v>Luen</v>
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>gen</v>
+        <v>Guen</v>
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ken</v>
+        <v>Kuen</v>
       </c>
       <c r="N31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>hen</v>
+        <v>Huen</v>
       </c>
       <c r="O31" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>jen</v>
+        <v>Juen</v>
       </c>
       <c r="P31" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>qen</v>
+        <v>Quen</v>
       </c>
       <c r="Q31" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>xen</v>
+        <v>Xuen</v>
       </c>
       <c r="R31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>zhen</v>
+        <v>ZHuen</v>
       </c>
       <c r="S31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>chen</v>
+        <v>CHuen</v>
       </c>
       <c r="T31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>shen</v>
+        <v>SHuen</v>
       </c>
       <c r="U31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>ren</v>
+        <v>Ruen</v>
       </c>
       <c r="V31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>zen</v>
+        <v>Zuen</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cen</v>
+        <v>Cuen</v>
       </c>
       <c r="X31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>sen</v>
-      </c>
-      <c r="Y31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^en</v>
+        <v>Suen</v>
+      </c>
+      <c r="Y31" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Wuen</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>buen</v>
-      </c>
-      <c r="E32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>puen</v>
-      </c>
-      <c r="F32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>muen</v>
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" ref="D32:S32" si="6">_xlfn.CONCAT(D$2,$B32)</f>
+        <v>Biên</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Piên</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Miên</v>
       </c>
       <c r="G32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>fuen</v>
+        <f t="shared" si="6"/>
+        <v>Fiên</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>duen</v>
+        <f t="shared" si="6"/>
+        <v>Diên</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>tuen</v>
+        <f t="shared" si="6"/>
+        <v>Tiên</v>
       </c>
       <c r="J32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>nuen</v>
+        <f t="shared" si="6"/>
+        <v>Niên</v>
       </c>
       <c r="K32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>luen</v>
-      </c>
-      <c r="L32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>guen</v>
-      </c>
-      <c r="M32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>kuen</v>
-      </c>
-      <c r="N32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>huen</v>
-      </c>
-      <c r="O32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>juen</v>
-      </c>
-      <c r="P32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>quen</v>
-      </c>
-      <c r="Q32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>xuen</v>
-      </c>
-      <c r="R32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>zhuen</v>
-      </c>
-      <c r="S32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>chuen</v>
-      </c>
-      <c r="T32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Liên</v>
+      </c>
+      <c r="L32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Giên</v>
+      </c>
+      <c r="M32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Kiên</v>
+      </c>
+      <c r="N32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>Hiên</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Jiên</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Qiên</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Xiên</v>
+      </c>
+      <c r="R32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>ZHiên</v>
+      </c>
+      <c r="S32" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>CHiên</v>
+      </c>
+      <c r="T32" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>shuen</v>
-      </c>
-      <c r="U32" s="1" t="str">
+        <v>SHiên</v>
+      </c>
+      <c r="U32" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>ruen</v>
-      </c>
-      <c r="V32" s="1" t="str">
+        <v>Riên</v>
+      </c>
+      <c r="V32" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>zuen</v>
-      </c>
-      <c r="W32" s="1" t="str">
+        <v>Ziên</v>
+      </c>
+      <c r="W32" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cuen</v>
-      </c>
-      <c r="X32" s="1" t="str">
+        <v>Ciên</v>
+      </c>
+      <c r="X32" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>suen</v>
-      </c>
-      <c r="Y32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^uen</v>
+        <v>Siên</v>
+      </c>
+      <c r="Y32" s="56" t="str">
+        <f>_xlfn.CONCAT(Z32,$B32)</f>
+        <v>Yiên</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>bin</v>
+        <v>Bin</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>pin</v>
+        <v>Pin</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>min</v>
+        <v>Min</v>
       </c>
       <c r="G33" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fin</v>
+        <v>Fin</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>din</v>
+        <v>Din</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f t="shared" ref="I33:V42" si="6">_xlfn.CONCAT(I$2,$B33)</f>
-        <v>tin</v>
+        <f t="shared" ref="I33:V42" si="7">_xlfn.CONCAT(I$2,$B33)</f>
+        <v>Tin</v>
       </c>
       <c r="J33" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>nin</v>
+        <f t="shared" si="7"/>
+        <v>Nin</v>
       </c>
       <c r="K33" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>lin</v>
+        <f t="shared" si="7"/>
+        <v>Lin</v>
       </c>
       <c r="L33" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>gin</v>
+        <f t="shared" si="7"/>
+        <v>Gin</v>
       </c>
       <c r="M33" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>kin</v>
+        <f t="shared" si="7"/>
+        <v>Kin</v>
       </c>
       <c r="N33" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>hin</v>
+        <f t="shared" si="7"/>
+        <v>Hin</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>jin</v>
+        <f t="shared" si="7"/>
+        <v>Jin</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>qin</v>
+        <f t="shared" si="7"/>
+        <v>Qin</v>
       </c>
       <c r="Q33" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>xin</v>
+        <f t="shared" si="7"/>
+        <v>Xin</v>
       </c>
       <c r="R33" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>zhin</v>
+        <f t="shared" si="7"/>
+        <v>ZHin</v>
       </c>
       <c r="S33" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>chin</v>
+        <f t="shared" si="7"/>
+        <v>CHin</v>
       </c>
       <c r="T33" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>shin</v>
+        <f t="shared" si="7"/>
+        <v>SHin</v>
       </c>
       <c r="U33" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>rin</v>
+        <f t="shared" si="7"/>
+        <v>Rin</v>
       </c>
       <c r="V33" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>zin</v>
+        <f t="shared" si="7"/>
+        <v>Zin</v>
       </c>
       <c r="W33" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cin</v>
+        <v>Cin</v>
       </c>
       <c r="X33" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>sin</v>
-      </c>
-      <c r="Y33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^in</v>
+        <v>Sin</v>
+      </c>
+      <c r="Y33" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v>Yin</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D34" s="7" t="str">
-        <f t="shared" ref="D34:S42" si="7">_xlfn.CONCAT(D$2,$B34)</f>
-        <v>büin</v>
+        <f t="shared" ref="D34:S42" si="8">_xlfn.CONCAT(D$2,$B34)</f>
+        <v>Büin</v>
       </c>
       <c r="E34" s="7" t="str">
         <f>_xlfn.CONCAT(E$2,$B34)</f>
-        <v>püin</v>
+        <v>Püin</v>
       </c>
       <c r="F34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Müin</v>
+      </c>
+      <c r="G34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Füin</v>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Düin</v>
+      </c>
+      <c r="I34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Tüin</v>
+      </c>
+      <c r="J34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Nüin</v>
+      </c>
+      <c r="K34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Lüin</v>
+      </c>
+      <c r="L34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Güin</v>
+      </c>
+      <c r="M34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Küin</v>
+      </c>
+      <c r="N34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Hüin</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Jüin</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Qüin</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Xüin</v>
+      </c>
+      <c r="R34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>ZHüin</v>
+      </c>
+      <c r="S34" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>CHüin</v>
+      </c>
+      <c r="T34" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>müin</v>
-      </c>
-      <c r="G34" s="7" t="str">
+        <v>SHüin</v>
+      </c>
+      <c r="U34" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>füin</v>
-      </c>
-      <c r="H34" s="7" t="str">
+        <v>Rüin</v>
+      </c>
+      <c r="V34" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>düin</v>
-      </c>
-      <c r="I34" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>tüin</v>
-      </c>
-      <c r="J34" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>nüin</v>
-      </c>
-      <c r="K34" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>lüin</v>
-      </c>
-      <c r="L34" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>güin</v>
-      </c>
-      <c r="M34" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>küin</v>
-      </c>
-      <c r="N34" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>hüin</v>
-      </c>
-      <c r="O34" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>jüin</v>
-      </c>
-      <c r="P34" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>qüin</v>
-      </c>
-      <c r="Q34" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>xüin</v>
-      </c>
-      <c r="R34" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>zhüin</v>
-      </c>
-      <c r="S34" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>chüin</v>
-      </c>
-      <c r="T34" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>shüin</v>
-      </c>
-      <c r="U34" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>rüin</v>
-      </c>
-      <c r="V34" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>züin</v>
+        <v>Züin</v>
       </c>
       <c r="W34" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cüin</v>
+        <v>Cüin</v>
       </c>
       <c r="X34" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>süin</v>
-      </c>
-      <c r="Y34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^üin</v>
+        <v>Süin</v>
+      </c>
+      <c r="Y34" s="60" t="str">
+        <f>_xlfn.CONCAT(Z34,$B34)</f>
+        <v>Ÿüin</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
-        <v>84</v>
+      <c r="A35" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Bang</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Pang</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Mang</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Fang</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Dang</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Tang</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Nang</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Lang</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Gang</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Kang</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Hang</v>
+      </c>
+      <c r="O35" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Jang</v>
+      </c>
+      <c r="P35" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Qang</v>
+      </c>
+      <c r="Q35" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Xang</v>
+      </c>
+      <c r="R35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ZHang</v>
+      </c>
+      <c r="S35" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CHang</v>
+      </c>
+      <c r="T35" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>bang</v>
-      </c>
-      <c r="E35" s="1" t="str">
+        <v>SHang</v>
+      </c>
+      <c r="U35" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>pang</v>
-      </c>
-      <c r="F35" s="1" t="str">
+        <v>Rang</v>
+      </c>
+      <c r="V35" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>mang</v>
-      </c>
-      <c r="G35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>fang</v>
-      </c>
-      <c r="H35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>dang</v>
-      </c>
-      <c r="I35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>tang</v>
-      </c>
-      <c r="J35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>nang</v>
-      </c>
-      <c r="K35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>lang</v>
-      </c>
-      <c r="L35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>gang</v>
-      </c>
-      <c r="M35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>kang</v>
-      </c>
-      <c r="N35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>hang</v>
-      </c>
-      <c r="O35" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>jang</v>
-      </c>
-      <c r="P35" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>qang</v>
-      </c>
-      <c r="Q35" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>xang</v>
-      </c>
-      <c r="R35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>zhang</v>
-      </c>
-      <c r="S35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>chang</v>
-      </c>
-      <c r="T35" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>shang</v>
-      </c>
-      <c r="U35" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>rang</v>
-      </c>
-      <c r="V35" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>zang</v>
+        <v>Zang</v>
       </c>
       <c r="W35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cang</v>
+        <v>Cang</v>
       </c>
       <c r="X35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>sang</v>
+        <v>Sang</v>
       </c>
       <c r="Y35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^ang</v>
+        <f t="shared" si="1"/>
+        <v>Øang</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Biang</v>
+      </c>
+      <c r="E36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Piang</v>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Miang</v>
+      </c>
+      <c r="G36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Fiang</v>
+      </c>
+      <c r="H36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Diang</v>
+      </c>
+      <c r="I36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Tiang</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Niang</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Liang</v>
+      </c>
+      <c r="L36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Giang</v>
+      </c>
+      <c r="M36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Kiang</v>
+      </c>
+      <c r="N36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Hiang</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Jiang</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Qiang</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Xiang</v>
+      </c>
+      <c r="R36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>ZHiang</v>
+      </c>
+      <c r="S36" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>CHiang</v>
+      </c>
+      <c r="T36" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>biang</v>
-      </c>
-      <c r="E36" s="7" t="str">
+        <v>SHiang</v>
+      </c>
+      <c r="U36" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>piang</v>
-      </c>
-      <c r="F36" s="7" t="str">
+        <v>Riang</v>
+      </c>
+      <c r="V36" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>miang</v>
-      </c>
-      <c r="G36" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>fiang</v>
-      </c>
-      <c r="H36" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>diang</v>
-      </c>
-      <c r="I36" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>tiang</v>
-      </c>
-      <c r="J36" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>niang</v>
-      </c>
-      <c r="K36" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>liang</v>
-      </c>
-      <c r="L36" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>giang</v>
-      </c>
-      <c r="M36" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>kiang</v>
-      </c>
-      <c r="N36" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>hiang</v>
-      </c>
-      <c r="O36" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>jiang</v>
-      </c>
-      <c r="P36" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>qiang</v>
-      </c>
-      <c r="Q36" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>xiang</v>
-      </c>
-      <c r="R36" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>zhiang</v>
-      </c>
-      <c r="S36" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>chiang</v>
-      </c>
-      <c r="T36" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>shiang</v>
-      </c>
-      <c r="U36" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>riang</v>
-      </c>
-      <c r="V36" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>ziang</v>
+        <v>Ziang</v>
       </c>
       <c r="W36" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>ciang</v>
+        <v>Ciang</v>
       </c>
       <c r="X36" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>siang</v>
-      </c>
-      <c r="Y36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^iang</v>
+        <v>Siang</v>
+      </c>
+      <c r="Y36" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Yiang</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Buang</v>
+      </c>
+      <c r="E37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Puang</v>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Muang</v>
+      </c>
+      <c r="G37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Fuang</v>
+      </c>
+      <c r="H37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Duang</v>
+      </c>
+      <c r="I37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Tuang</v>
+      </c>
+      <c r="J37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Nuang</v>
+      </c>
+      <c r="K37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Luang</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Guang</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Kuang</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Huang</v>
+      </c>
+      <c r="O37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Juang</v>
+      </c>
+      <c r="P37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Quang</v>
+      </c>
+      <c r="Q37" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Xuang</v>
+      </c>
+      <c r="R37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ZHuang</v>
+      </c>
+      <c r="S37" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CHuang</v>
+      </c>
+      <c r="T37" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>buang</v>
-      </c>
-      <c r="E37" s="7" t="str">
+        <v>SHuang</v>
+      </c>
+      <c r="U37" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>puang</v>
-      </c>
-      <c r="F37" s="7" t="str">
+        <v>Ruang</v>
+      </c>
+      <c r="V37" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>muang</v>
-      </c>
-      <c r="G37" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>fuang</v>
-      </c>
-      <c r="H37" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>duang</v>
-      </c>
-      <c r="I37" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>tuang</v>
-      </c>
-      <c r="J37" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>nuang</v>
-      </c>
-      <c r="K37" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>luang</v>
-      </c>
-      <c r="L37" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>guang</v>
-      </c>
-      <c r="M37" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>kuang</v>
-      </c>
-      <c r="N37" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>huang</v>
-      </c>
-      <c r="O37" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>juang</v>
-      </c>
-      <c r="P37" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>quang</v>
-      </c>
-      <c r="Q37" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>xuang</v>
-      </c>
-      <c r="R37" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>zhuang</v>
-      </c>
-      <c r="S37" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>chuang</v>
-      </c>
-      <c r="T37" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>shuang</v>
-      </c>
-      <c r="U37" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>ruang</v>
-      </c>
-      <c r="V37" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>zuang</v>
+        <v>Zuang</v>
       </c>
       <c r="W37" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cuang</v>
+        <v>Cuang</v>
       </c>
       <c r="X37" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>suang</v>
-      </c>
-      <c r="Y37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^uang</v>
+        <v>Suang</v>
+      </c>
+      <c r="Y37" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Wuang</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Bong</v>
+      </c>
+      <c r="E38" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Pong</v>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Mong</v>
+      </c>
+      <c r="G38" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Fong</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Dong</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Tong</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Nong</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Long</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Gong</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Kong</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Hong</v>
+      </c>
+      <c r="O38" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Jong</v>
+      </c>
+      <c r="P38" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Qong</v>
+      </c>
+      <c r="Q38" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Xong</v>
+      </c>
+      <c r="R38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ZHong</v>
+      </c>
+      <c r="S38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CHong</v>
+      </c>
+      <c r="T38" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>bong</v>
-      </c>
-      <c r="E38" s="7" t="str">
+        <v>SHong</v>
+      </c>
+      <c r="U38" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>pong</v>
-      </c>
-      <c r="F38" s="7" t="str">
+        <v>Rong</v>
+      </c>
+      <c r="V38" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>mong</v>
-      </c>
-      <c r="G38" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>fong</v>
-      </c>
-      <c r="H38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>dong</v>
-      </c>
-      <c r="I38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>tong</v>
-      </c>
-      <c r="J38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>nong</v>
-      </c>
-      <c r="K38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>long</v>
-      </c>
-      <c r="L38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>gong</v>
-      </c>
-      <c r="M38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>kong</v>
-      </c>
-      <c r="N38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>hong</v>
-      </c>
-      <c r="O38" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>jong</v>
-      </c>
-      <c r="P38" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>qong</v>
-      </c>
-      <c r="Q38" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>xong</v>
-      </c>
-      <c r="R38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>zhong</v>
-      </c>
-      <c r="S38" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>chong</v>
-      </c>
-      <c r="T38" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>shong</v>
-      </c>
-      <c r="U38" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>rong</v>
-      </c>
-      <c r="V38" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>zong</v>
+        <v>Zong</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>cong</v>
+        <v>Cong</v>
       </c>
       <c r="X38" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>song</v>
+        <v>Song</v>
       </c>
       <c r="Y38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^ong</v>
+        <f t="shared" si="1"/>
+        <v>Øong</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Biong</v>
+      </c>
+      <c r="E39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Piong</v>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Miong</v>
+      </c>
+      <c r="G39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Fiong</v>
+      </c>
+      <c r="H39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Diong</v>
+      </c>
+      <c r="I39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Tiong</v>
+      </c>
+      <c r="J39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Niong</v>
+      </c>
+      <c r="K39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Liong</v>
+      </c>
+      <c r="L39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Giong</v>
+      </c>
+      <c r="M39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Kiong</v>
+      </c>
+      <c r="N39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Hiong</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Jiong</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Qiong</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Xiong</v>
+      </c>
+      <c r="R39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>ZHiong</v>
+      </c>
+      <c r="S39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>CHiong</v>
+      </c>
+      <c r="T39" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>biong</v>
-      </c>
-      <c r="E39" s="7" t="str">
+        <v>SHiong</v>
+      </c>
+      <c r="U39" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>piong</v>
-      </c>
-      <c r="F39" s="7" t="str">
+        <v>Riong</v>
+      </c>
+      <c r="V39" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>miong</v>
-      </c>
-      <c r="G39" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>fiong</v>
-      </c>
-      <c r="H39" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>diong</v>
-      </c>
-      <c r="I39" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>tiong</v>
-      </c>
-      <c r="J39" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>niong</v>
-      </c>
-      <c r="K39" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>liong</v>
-      </c>
-      <c r="L39" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>giong</v>
-      </c>
-      <c r="M39" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>kiong</v>
-      </c>
-      <c r="N39" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>hiong</v>
-      </c>
-      <c r="O39" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>jiong</v>
-      </c>
-      <c r="P39" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>qiong</v>
-      </c>
-      <c r="Q39" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>xiong</v>
-      </c>
-      <c r="R39" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>zhiong</v>
-      </c>
-      <c r="S39" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>chiong</v>
-      </c>
-      <c r="T39" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>shiong</v>
-      </c>
-      <c r="U39" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>riong</v>
-      </c>
-      <c r="V39" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>ziong</v>
+        <v>Ziong</v>
       </c>
       <c r="W39" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>ciong</v>
+        <v>Ciong</v>
       </c>
       <c r="X39" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>siong</v>
-      </c>
-      <c r="Y39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^iong</v>
+        <v>Siong</v>
+      </c>
+      <c r="Y39" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Yiong</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Beng</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Peng</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Meng</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Feng</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Deng</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Teng</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Neng</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Leng</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Geng</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Keng</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Heng</v>
+      </c>
+      <c r="O40" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Jeng</v>
+      </c>
+      <c r="P40" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Qeng</v>
+      </c>
+      <c r="Q40" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Xeng</v>
+      </c>
+      <c r="R40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>ZHeng</v>
+      </c>
+      <c r="S40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CHeng</v>
+      </c>
+      <c r="T40" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>beng</v>
-      </c>
-      <c r="E40" s="1" t="str">
+        <v>SHeng</v>
+      </c>
+      <c r="U40" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>peng</v>
-      </c>
-      <c r="F40" s="1" t="str">
+        <v>Reng</v>
+      </c>
+      <c r="V40" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>meng</v>
-      </c>
-      <c r="G40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>feng</v>
-      </c>
-      <c r="H40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>deng</v>
-      </c>
-      <c r="I40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>teng</v>
-      </c>
-      <c r="J40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>neng</v>
-      </c>
-      <c r="K40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>leng</v>
-      </c>
-      <c r="L40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>geng</v>
-      </c>
-      <c r="M40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>keng</v>
-      </c>
-      <c r="N40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>heng</v>
-      </c>
-      <c r="O40" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>jeng</v>
-      </c>
-      <c r="P40" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>qeng</v>
-      </c>
-      <c r="Q40" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>xeng</v>
-      </c>
-      <c r="R40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>zheng</v>
-      </c>
-      <c r="S40" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>cheng</v>
-      </c>
-      <c r="T40" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>sheng</v>
-      </c>
-      <c r="U40" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>reng</v>
-      </c>
-      <c r="V40" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>zeng</v>
+        <v>Zeng</v>
       </c>
       <c r="W40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ceng</v>
+        <v>Ceng</v>
       </c>
       <c r="X40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>seng</v>
+        <v>Seng</v>
       </c>
       <c r="Y40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^eng</v>
+        <f t="shared" si="1"/>
+        <v>Øeng</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Bueng</v>
+      </c>
+      <c r="E41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Pueng</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Mueng</v>
+      </c>
+      <c r="G41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Fueng</v>
+      </c>
+      <c r="H41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Dueng</v>
+      </c>
+      <c r="I41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Tueng</v>
+      </c>
+      <c r="J41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Nueng</v>
+      </c>
+      <c r="K41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Lueng</v>
+      </c>
+      <c r="L41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Gueng</v>
+      </c>
+      <c r="M41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Kueng</v>
+      </c>
+      <c r="N41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Hueng</v>
+      </c>
+      <c r="O41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Jueng</v>
+      </c>
+      <c r="P41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Queng</v>
+      </c>
+      <c r="Q41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Xueng</v>
+      </c>
+      <c r="R41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>ZHueng</v>
+      </c>
+      <c r="S41" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>CHueng</v>
+      </c>
+      <c r="T41" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>bueng</v>
-      </c>
-      <c r="E41" s="7" t="str">
+        <v>SHueng</v>
+      </c>
+      <c r="U41" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>pueng</v>
-      </c>
-      <c r="F41" s="7" t="str">
+        <v>Rueng</v>
+      </c>
+      <c r="V41" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>mueng</v>
-      </c>
-      <c r="G41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>fueng</v>
-      </c>
-      <c r="H41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>dueng</v>
-      </c>
-      <c r="I41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>tueng</v>
-      </c>
-      <c r="J41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>nueng</v>
-      </c>
-      <c r="K41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>lueng</v>
-      </c>
-      <c r="L41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>gueng</v>
-      </c>
-      <c r="M41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>kueng</v>
-      </c>
-      <c r="N41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>hueng</v>
-      </c>
-      <c r="O41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>jueng</v>
-      </c>
-      <c r="P41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>queng</v>
-      </c>
-      <c r="Q41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>xueng</v>
-      </c>
-      <c r="R41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>zhueng</v>
-      </c>
-      <c r="S41" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>chueng</v>
-      </c>
-      <c r="T41" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>shueng</v>
-      </c>
-      <c r="U41" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>rueng</v>
-      </c>
-      <c r="V41" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>zueng</v>
+        <v>Zueng</v>
       </c>
       <c r="W41" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cueng</v>
+        <v>Cueng</v>
       </c>
       <c r="X41" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>sueng</v>
-      </c>
-      <c r="Y41" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^ueng</v>
+        <v>Sueng</v>
+      </c>
+      <c r="Y41" s="56" t="str">
+        <f t="shared" si="1"/>
+        <v>Wueng</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Bing</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Ping</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Ming</v>
+      </c>
+      <c r="G42" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Fing</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Ding</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Ting</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Ning</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Ling</v>
+      </c>
+      <c r="L42" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Ging</v>
+      </c>
+      <c r="M42" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>King</v>
+      </c>
+      <c r="N42" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Hing</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Jing</v>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Qing</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Xing</v>
+      </c>
+      <c r="R42" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>ZHing</v>
+      </c>
+      <c r="S42" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>CHing</v>
+      </c>
+      <c r="T42" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>bing</v>
-      </c>
-      <c r="E42" s="1" t="str">
+        <v>SHing</v>
+      </c>
+      <c r="U42" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>ping</v>
-      </c>
-      <c r="F42" s="1" t="str">
+        <v>Ring</v>
+      </c>
+      <c r="V42" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>ming</v>
-      </c>
-      <c r="G42" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>fing</v>
-      </c>
-      <c r="H42" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ding</v>
-      </c>
-      <c r="I42" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ting</v>
-      </c>
-      <c r="J42" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ning</v>
-      </c>
-      <c r="K42" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>ling</v>
-      </c>
-      <c r="L42" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>ging</v>
-      </c>
-      <c r="M42" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>king</v>
-      </c>
-      <c r="N42" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>hing</v>
-      </c>
-      <c r="O42" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>jing</v>
-      </c>
-      <c r="P42" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>qing</v>
-      </c>
-      <c r="Q42" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>xing</v>
-      </c>
-      <c r="R42" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>zhing</v>
-      </c>
-      <c r="S42" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>ching</v>
-      </c>
-      <c r="T42" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>shing</v>
-      </c>
-      <c r="U42" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>ring</v>
-      </c>
-      <c r="V42" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>zing</v>
+        <v>Zing</v>
       </c>
       <c r="W42" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>cing</v>
+        <v>Cing</v>
       </c>
       <c r="X42" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>sing</v>
-      </c>
-      <c r="Y42" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>^ing</v>
+        <v>Sing</v>
+      </c>
+      <c r="Y42" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v>Ying</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/TSP.xlsx
+++ b/TSP.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program Devs\TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB6AE34-ED8E-4D4D-A636-44E062F4CA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0493D-EEE3-4783-8C9C-6BD7C4625A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TSP" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="TSP键位" sheetId="1" r:id="rId1"/>
+    <sheet name="TSP韵母" sheetId="4" r:id="rId2"/>
+    <sheet name="TSP声韵母大全" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$Z$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TSP声韵母大全!$A$1:$Z$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="188">
   <si>
     <t>韵母</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,14 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄色：a主韵腹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色：其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,14 +433,6 @@
   </si>
   <si>
     <t>üe, ue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色：e,i,ê主韵腹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能2 待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1108,14 +1092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>含合口韵母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含齐撮韵母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i, ɿ, ʅ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1124,10 +1100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能1 笔画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>üê, uai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1148,256 +1120,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">i, </t>
-    </r>
-    <r>
-      <rPr>
+    <t>er,ng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y, ÿ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ÿ</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ɿ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+      </rPr>
+      <t>Ø</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
+      </rPr>
+      <t>、齐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ʅ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, er</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>aoeê</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>er,ng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐撮韵母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开口韵母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合口韵母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y, ÿ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ÿ</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见右侧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      </rPr>
+      <t>、撮Ÿ、合</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Ø</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、齐</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、撮Ÿ、合</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>W</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1407,10 +1292,6 @@
   </si>
   <si>
     <t>Ø</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标红：汉语拼音采用真开头模式，与此不同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1737,11 +1618,279 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保持黑色：均没有声母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标蓝：汉语拼音采用伪开头模式，与此相同</t>
+    <t>aoeêmn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄色：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主韵腹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝色：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e,i,ê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主韵腹</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿色：其他</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笔画</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开口韵母</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含齐撮韵母</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>齐撮韵母</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含合口韵母</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合口韵母</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色：平舌音翘舌音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色（浅）：零声母与介音声母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色（深）：额外功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>韵母</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键盘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声母</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零声母保持黑色：汉语拼音没有声母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零声母标红：汉语拼音采用真开头模式，与此不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零声母标蓝：汉语拼音采用伪开头模式，与此相同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1749,7 +1898,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1759,14 +1908,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1907,23 +2048,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2282,9 +2416,126 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2293,61 +2544,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2362,9 +2559,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2377,7 +2571,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2386,82 +2589,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2768,794 +2905,802 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:X30"/>
+  <dimension ref="A2:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.77734375" style="27"/>
+    <col min="1" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="28" t="s">
+      <c r="L2" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="N3" s="59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="N4" s="59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="29" t="s">
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="N11" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="N12" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
         <v>116</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="N3" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="37"/>
-    </row>
-    <row r="4" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="N4" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="37"/>
-    </row>
-    <row r="6" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="15" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>134</v>
+      <c r="B17" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="24" t="s">
+      <c r="L18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="W18" s="9" t="s">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="9"/>
+      <c r="X18" s="2"/>
     </row>
     <row r="19" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="28" t="s">
+      <c r="F19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="J19" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="N19" s="9" t="s">
+      <c r="L19" s="2"/>
+      <c r="N19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9" t="s">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="T19" s="9" t="s">
+      <c r="R19" s="2"/>
+      <c r="T19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="U19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="V19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
     </row>
     <row r="20" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="N20" s="9" t="s">
+      <c r="E20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="N20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T20" s="9" t="s">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U20" s="9" t="s">
+      <c r="U20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
     </row>
     <row r="22" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>125</v>
+      <c r="B22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="N23" s="9" t="s">
+      <c r="L23" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>93</v>
+      <c r="W23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K24" s="31" t="s">
+      <c r="J24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9" t="s">
+      <c r="L24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X24" s="9"/>
+      <c r="X24" s="2"/>
     </row>
     <row r="25" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="C25" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" s="9" t="s">
+      <c r="E25" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T25" s="9" t="s">
+      <c r="Q25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U25" s="9" t="s">
+      <c r="U25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
     </row>
     <row r="27" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="O27" s="27" t="s">
+      <c r="N27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="28" t="s">
+      <c r="L28" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="X28" s="9" t="s">
+      <c r="V28" s="2"/>
+      <c r="W28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" s="9" t="s">
+      <c r="F29" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="K29" s="9" t="s">
+      <c r="J29" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9" t="s">
+      <c r="L29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9" t="s">
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
     </row>
     <row r="30" spans="2:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
+      <c r="E30" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="120" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -3574,63 +3719,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>96</v>
+      <c r="F1" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>99</v>
+        <v>157</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="15" t="s">
-        <v>102</v>
+      <c r="F3" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3639,113 +3784,113 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>105</v>
+      <c r="A5" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="15"/>
+        <v>156</v>
+      </c>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="A8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>94</v>
+      <c r="A10" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+        <v>90</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+      <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3765,7 +3910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F914A85F-D6ED-45CC-9F6C-6023A3372693}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3778,11 +3923,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3808,90 +3953,90 @@
         <v>26</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Y2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Z2" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z2" s="35" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>71</v>
+      <c r="A3" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -3988,11 +4133,14 @@
         <v>Øa</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
@@ -4083,24 +4231,24 @@
         <f>_xlfn.CONCAT(X$2,$B4)</f>
         <v>Sia</v>
       </c>
-      <c r="Y4" s="56" t="str">
+      <c r="Y4" s="23" t="str">
         <f t="shared" ref="Y4:Y42" si="1">_xlfn.CONCAT(Z4,$B4)</f>
         <v>Yia</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA4" s="59" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ref="D5:S33" si="2">_xlfn.CONCAT(D$2,$B5)</f>
@@ -4186,16 +4334,16 @@
         <f t="shared" si="3"/>
         <v>Sua</v>
       </c>
-      <c r="Y5" s="56" t="str">
+      <c r="Y5" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Wua</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -4291,19 +4439,16 @@
         <v>Øo</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA6" s="59" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ref="D7:V7" si="4">_xlfn.CONCAT(D$2,$B7)</f>
@@ -4389,21 +4534,21 @@
         <f t="shared" si="3"/>
         <v>Sio</v>
       </c>
-      <c r="Y7" s="56" t="str">
+      <c r="Y7" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Yio</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4489,16 +4634,16 @@
         <f t="shared" si="3"/>
         <v>Suo</v>
       </c>
-      <c r="Y8" s="56" t="str">
+      <c r="Y8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Wuo</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -4594,16 +4739,16 @@
         <v>Øe</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4694,11 +4839,11 @@
         <v>Øê</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
@@ -4789,21 +4934,21 @@
         <f t="shared" si="3"/>
         <v>Siê</v>
       </c>
-      <c r="Y11" s="56" t="str">
+      <c r="Y11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Yiê</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -4889,19 +5034,19 @@
         <f t="shared" si="3"/>
         <v>Süê</v>
       </c>
-      <c r="Y12" s="60" t="str">
+      <c r="Y12" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Ÿüê</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA12" s="59" t="s">
-        <v>182</v>
+        <v>127</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -4992,18 +5137,18 @@
         <f t="shared" si="3"/>
         <v>Si</v>
       </c>
-      <c r="Y13" s="60" t="str">
+      <c r="Y13" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Yi</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -5098,9 +5243,9 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -5195,7 +5340,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -5286,21 +5431,21 @@
         <f t="shared" si="3"/>
         <v>Su</v>
       </c>
-      <c r="Y16" s="60" t="str">
+      <c r="Y16" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Wu</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5386,21 +5531,21 @@
         <f t="shared" si="3"/>
         <v>Sü</v>
       </c>
-      <c r="Y17" s="60" t="str">
+      <c r="Y17" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Ÿü</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5491,12 +5636,12 @@
         <v>Øer</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
-        <v>79</v>
+      <c r="A19" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>51</v>
@@ -5593,16 +5738,16 @@
         <v>Øai</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5688,16 +5833,16 @@
         <f t="shared" si="3"/>
         <v>Suai</v>
       </c>
-      <c r="Y20" s="56" t="str">
+      <c r="Y20" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Wuai</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
@@ -5793,16 +5938,16 @@
         <v>Øêi</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5888,20 +6033,20 @@
         <f t="shared" si="3"/>
         <v>Suêi</v>
       </c>
-      <c r="Y22" s="56" t="str">
+      <c r="Y22" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Wuêi</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
-        <v>80</v>
+      <c r="A23" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>52</v>
@@ -5995,13 +6140,13 @@
         <v>Øau</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>42</v>
@@ -6090,16 +6235,16 @@
         <f t="shared" si="3"/>
         <v>Siau</v>
       </c>
-      <c r="Y24" s="56" t="str">
+      <c r="Y24" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Yiau</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
@@ -6195,11 +6340,11 @@
         <v>Øou</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
@@ -6290,17 +6435,17 @@
         <f t="shared" si="3"/>
         <v>Siou</v>
       </c>
-      <c r="Y26" s="56" t="str">
+      <c r="Y26" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Yiou</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
-        <v>81</v>
+      <c r="A27" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>35</v>
@@ -6397,11 +6542,11 @@
         <v>Øan</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
@@ -6492,18 +6637,18 @@
         <f t="shared" si="3"/>
         <v>Suan</v>
       </c>
-      <c r="Y28" s="56" t="str">
+      <c r="Y28" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Wuan</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>57</v>
@@ -6592,16 +6737,16 @@
         <f t="shared" si="3"/>
         <v>Süan</v>
       </c>
-      <c r="Y29" s="60" t="str">
+      <c r="Y29" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Ÿüan</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
@@ -6697,16 +6842,16 @@
         <v>Øen</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6792,18 +6937,18 @@
         <f t="shared" si="3"/>
         <v>Suen</v>
       </c>
-      <c r="Y31" s="56" t="str">
+      <c r="Y31" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Wuen</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>37</v>
@@ -6892,16 +7037,16 @@
         <f t="shared" si="3"/>
         <v>Siên</v>
       </c>
-      <c r="Y32" s="56" t="str">
+      <c r="Y32" s="23" t="str">
         <f>_xlfn.CONCAT(Z32,$B32)</f>
         <v>Yiên</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="3" t="s">
         <v>53</v>
       </c>
@@ -6992,21 +7137,21 @@
         <f t="shared" si="3"/>
         <v>Sin</v>
       </c>
-      <c r="Y33" s="60" t="str">
+      <c r="Y33" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Yin</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" s="7" t="str">
         <f t="shared" ref="D34:S42" si="8">_xlfn.CONCAT(D$2,$B34)</f>
@@ -7092,17 +7237,17 @@
         <f t="shared" si="3"/>
         <v>Süin</v>
       </c>
-      <c r="Y34" s="60" t="str">
+      <c r="Y34" s="25" t="str">
         <f>_xlfn.CONCAT(Z34,$B34)</f>
         <v>Ÿüin</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
-        <v>82</v>
+      <c r="A35" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>36</v>
@@ -7199,16 +7344,16 @@
         <v>Øang</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7294,21 +7439,21 @@
         <f t="shared" si="3"/>
         <v>Siang</v>
       </c>
-      <c r="Y36" s="56" t="str">
+      <c r="Y36" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Yiang</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7394,21 +7539,21 @@
         <f t="shared" si="3"/>
         <v>Suang</v>
       </c>
-      <c r="Y37" s="56" t="str">
+      <c r="Y37" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Wuang</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7499,16 +7644,16 @@
         <v>Øong</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="7" t="str">
         <f t="shared" si="8"/>
@@ -7594,16 +7739,16 @@
         <f t="shared" si="3"/>
         <v>Siong</v>
       </c>
-      <c r="Y39" s="56" t="str">
+      <c r="Y39" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Yiong</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
@@ -7699,11 +7844,11 @@
         <v>Øeng</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="3" t="s">
         <v>50</v>
       </c>
@@ -7794,16 +7939,16 @@
         <f t="shared" si="3"/>
         <v>Sueng</v>
       </c>
-      <c r="Y41" s="56" t="str">
+      <c r="Y41" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Wueng</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
@@ -7894,12 +8039,12 @@
         <f t="shared" si="3"/>
         <v>Sing</v>
       </c>
-      <c r="Y42" s="60" t="str">
+      <c r="Y42" s="25" t="str">
         <f t="shared" si="1"/>
         <v>Ying</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
